--- a/Data Structures/linked_list/MPMC_Buffer_Test_Data.xlsx
+++ b/Data Structures/linked_list/MPMC_Buffer_Test_Data.xlsx
@@ -377,7 +377,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1380,11 +1379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97239424"/>
-        <c:axId val="97241344"/>
+        <c:axId val="58073088"/>
+        <c:axId val="58075392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97239424"/>
+        <c:axId val="58073088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,14 +1405,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97241344"/>
+        <c:crossAx val="58075392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,7 +1419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97241344"/>
+        <c:axId val="58075392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,21 +1442,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97239424"/>
+        <c:crossAx val="58073088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1681,11 +1677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99903744"/>
-        <c:axId val="99905920"/>
+        <c:axId val="39111680"/>
+        <c:axId val="39113856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99903744"/>
+        <c:axId val="39111680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99905920"/>
+        <c:crossAx val="39113856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1721,7 +1717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99905920"/>
+        <c:axId val="39113856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99903744"/>
+        <c:crossAx val="39111680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1979,11 +1975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99936512"/>
-        <c:axId val="99938688"/>
+        <c:axId val="39599104"/>
+        <c:axId val="39601280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99936512"/>
+        <c:axId val="39599104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99938688"/>
+        <c:crossAx val="39601280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2019,7 +2015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99938688"/>
+        <c:axId val="39601280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99936512"/>
+        <c:crossAx val="39599104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2107,7 +2103,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2567,11 +2562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101239808"/>
-        <c:axId val="101319808"/>
+        <c:axId val="39641088"/>
+        <c:axId val="39643008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101239808"/>
+        <c:axId val="39641088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2593,14 +2588,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101319808"/>
+        <c:crossAx val="39643008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2608,7 +2602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101319808"/>
+        <c:axId val="39643008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,21 +2625,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101239808"/>
+        <c:crossAx val="39641088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2695,7 +2687,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3008,11 +2999,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101365248"/>
-        <c:axId val="101367168"/>
+        <c:axId val="39663872"/>
+        <c:axId val="39678336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101365248"/>
+        <c:axId val="39663872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3034,14 +3025,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101367168"/>
+        <c:crossAx val="39678336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3049,7 +3039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101367168"/>
+        <c:axId val="39678336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,21 +3062,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101365248"/>
+        <c:crossAx val="39663872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3427,11 +3415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101404672"/>
-        <c:axId val="101406592"/>
+        <c:axId val="39695104"/>
+        <c:axId val="39697024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101404672"/>
+        <c:axId val="39695104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3459,7 +3447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101406592"/>
+        <c:crossAx val="39697024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3467,7 +3455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101406592"/>
+        <c:axId val="39697024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3496,7 +3484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101404672"/>
+        <c:crossAx val="39695104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3864,11 +3852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102050048"/>
-        <c:axId val="102056320"/>
+        <c:axId val="39926784"/>
+        <c:axId val="39937152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102050048"/>
+        <c:axId val="39926784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,7 +3884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102056320"/>
+        <c:crossAx val="39937152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3904,7 +3892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102056320"/>
+        <c:axId val="39937152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3933,7 +3921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102050048"/>
+        <c:crossAx val="39926784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4249,11 +4237,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102082816"/>
-        <c:axId val="102089088"/>
+        <c:axId val="39947264"/>
+        <c:axId val="39965824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102082816"/>
+        <c:axId val="39947264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4282,7 +4270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102089088"/>
+        <c:crossAx val="39965824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4290,7 +4278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102089088"/>
+        <c:axId val="39965824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4320,7 +4308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102082816"/>
+        <c:crossAx val="39947264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4372,7 +4360,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4637,11 +4624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101472512"/>
-        <c:axId val="101478784"/>
+        <c:axId val="39988224"/>
+        <c:axId val="39994496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101472512"/>
+        <c:axId val="39988224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4663,14 +4650,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101478784"/>
+        <c:crossAx val="39994496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4678,7 +4664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101478784"/>
+        <c:axId val="39994496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,21 +4687,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101472512"/>
+        <c:crossAx val="39988224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5025,11 +5009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101509376"/>
-        <c:axId val="101519744"/>
+        <c:axId val="40016896"/>
+        <c:axId val="40019072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101509376"/>
+        <c:axId val="40016896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5058,7 +5042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101519744"/>
+        <c:crossAx val="40019072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5066,7 +5050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101519744"/>
+        <c:axId val="40019072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5096,7 +5080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101509376"/>
+        <c:crossAx val="40016896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5905,11 +5889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101579776"/>
-        <c:axId val="101663872"/>
+        <c:axId val="40067072"/>
+        <c:axId val="40068992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101579776"/>
+        <c:axId val="40067072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5938,7 +5922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101663872"/>
+        <c:crossAx val="40068992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5946,7 +5930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101663872"/>
+        <c:axId val="40068992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5976,7 +5960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101579776"/>
+        <c:crossAx val="40067072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7030,11 +7014,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96927104"/>
-        <c:axId val="99161600"/>
+        <c:axId val="112785280"/>
+        <c:axId val="114274688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96927104"/>
+        <c:axId val="112785280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7062,7 +7046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99161600"/>
+        <c:crossAx val="114274688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7070,7 +7054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99161600"/>
+        <c:axId val="114274688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7099,7 +7083,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96927104"/>
+        <c:crossAx val="112785280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8078,11 +8062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102111488"/>
-        <c:axId val="102117760"/>
+        <c:axId val="40107008"/>
+        <c:axId val="40121472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102111488"/>
+        <c:axId val="40107008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8111,7 +8095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102117760"/>
+        <c:crossAx val="40121472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8119,7 +8103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102117760"/>
+        <c:axId val="40121472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8149,7 +8133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102111488"/>
+        <c:crossAx val="40107008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9116,11 +9100,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102187776"/>
-        <c:axId val="102189696"/>
+        <c:axId val="40158720"/>
+        <c:axId val="40160640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102187776"/>
+        <c:axId val="40158720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9149,7 +9133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102189696"/>
+        <c:crossAx val="40160640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9157,7 +9141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102189696"/>
+        <c:axId val="40160640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9187,7 +9171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102187776"/>
+        <c:crossAx val="40158720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10167,11 +10151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102321152"/>
-        <c:axId val="102335616"/>
+        <c:axId val="40230912"/>
+        <c:axId val="40232832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102321152"/>
+        <c:axId val="40230912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10199,7 +10183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102335616"/>
+        <c:crossAx val="40232832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10207,7 +10191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102335616"/>
+        <c:axId val="40232832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10236,7 +10220,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102321152"/>
+        <c:crossAx val="40230912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10566,11 +10550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102358016"/>
-        <c:axId val="102700160"/>
+        <c:axId val="40583168"/>
+        <c:axId val="40585088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102358016"/>
+        <c:axId val="40583168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10598,7 +10582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102700160"/>
+        <c:crossAx val="40585088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10606,7 +10590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102700160"/>
+        <c:axId val="40585088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10635,7 +10619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102358016"/>
+        <c:crossAx val="40583168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10955,11 +10939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102722176"/>
-        <c:axId val="102736640"/>
+        <c:axId val="40598912"/>
+        <c:axId val="40613376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102722176"/>
+        <c:axId val="40598912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10987,7 +10971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102736640"/>
+        <c:crossAx val="40613376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10995,7 +10979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102736640"/>
+        <c:axId val="40613376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11024,7 +11008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102722176"/>
+        <c:crossAx val="40598912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11344,11 +11328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103094912"/>
-        <c:axId val="103097088"/>
+        <c:axId val="40701312"/>
+        <c:axId val="40707584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103094912"/>
+        <c:axId val="40701312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11376,7 +11360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103097088"/>
+        <c:crossAx val="40707584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11384,7 +11368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103097088"/>
+        <c:axId val="40707584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11413,7 +11397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103094912"/>
+        <c:crossAx val="40701312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11733,11 +11717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103139968"/>
-        <c:axId val="102765312"/>
+        <c:axId val="40717696"/>
+        <c:axId val="40732160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103139968"/>
+        <c:axId val="40717696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11765,7 +11749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102765312"/>
+        <c:crossAx val="40732160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11773,7 +11757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102765312"/>
+        <c:axId val="40732160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11802,7 +11786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103139968"/>
+        <c:crossAx val="40717696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11861,7 +11845,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12843,11 +12826,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99207808"/>
-        <c:axId val="99218176"/>
+        <c:axId val="117586944"/>
+        <c:axId val="117761536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99207808"/>
+        <c:axId val="117586944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12869,14 +12852,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99218176"/>
+        <c:crossAx val="117761536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12884,7 +12866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99218176"/>
+        <c:axId val="117761536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12907,14 +12889,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99207808"/>
+        <c:crossAx val="117586944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12983,7 +12964,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13149,11 +13129,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99256960"/>
-        <c:axId val="99259136"/>
+        <c:axId val="38456704"/>
+        <c:axId val="38458880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99256960"/>
+        <c:axId val="38456704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13175,14 +13155,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99259136"/>
+        <c:crossAx val="38458880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13190,7 +13169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99259136"/>
+        <c:axId val="38458880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13213,21 +13192,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99256960"/>
+        <c:crossAx val="38456704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13285,7 +13262,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13451,11 +13427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99303808"/>
-        <c:axId val="99305728"/>
+        <c:axId val="38997376"/>
+        <c:axId val="39007744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99303808"/>
+        <c:axId val="38997376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13477,14 +13453,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99305728"/>
+        <c:crossAx val="39007744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13492,7 +13467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99305728"/>
+        <c:axId val="39007744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13515,21 +13490,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99303808"/>
+        <c:crossAx val="38997376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13752,11 +13725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99341056"/>
-        <c:axId val="99342976"/>
+        <c:axId val="39022592"/>
+        <c:axId val="39024512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99341056"/>
+        <c:axId val="39022592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13784,7 +13757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99342976"/>
+        <c:crossAx val="39024512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13792,7 +13765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99342976"/>
+        <c:axId val="39024512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13821,7 +13794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99341056"/>
+        <c:crossAx val="39022592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14050,11 +14023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99351552"/>
-        <c:axId val="99447936"/>
+        <c:axId val="39051264"/>
+        <c:axId val="39053184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99351552"/>
+        <c:axId val="39051264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14082,7 +14055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99447936"/>
+        <c:crossAx val="39053184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14090,7 +14063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99447936"/>
+        <c:axId val="39053184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14119,7 +14092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99351552"/>
+        <c:crossAx val="39051264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14348,11 +14321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99482240"/>
-        <c:axId val="99816192"/>
+        <c:axId val="39067008"/>
+        <c:axId val="39073280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99482240"/>
+        <c:axId val="39067008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14380,7 +14353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99816192"/>
+        <c:crossAx val="39073280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14388,7 +14361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99816192"/>
+        <c:axId val="39073280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14417,7 +14390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99482240"/>
+        <c:crossAx val="39067008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14625,11 +14598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99866880"/>
-        <c:axId val="99869056"/>
+        <c:axId val="39083008"/>
+        <c:axId val="39097472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99866880"/>
+        <c:axId val="39083008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14657,7 +14630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99869056"/>
+        <c:crossAx val="39097472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14665,7 +14638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99869056"/>
+        <c:axId val="39097472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14694,7 +14667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99866880"/>
+        <c:crossAx val="39083008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15835,8 +15808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="H242" sqref="H242:H243"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="H235" sqref="H235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17538,11 +17511,19 @@
       <c r="C77" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D77">
+        <f>B77/B76 * 100</f>
+        <v>64.372467692880932</v>
+      </c>
       <c r="F77" s="1">
         <v>7343290</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="H77">
+        <f>F77/F76 * 100</f>
+        <v>84.479401150636946</v>
       </c>
       <c r="L77" s="1"/>
     </row>
@@ -17748,11 +17729,19 @@
       <c r="C92" t="s">
         <v>48</v>
       </c>
+      <c r="D92">
+        <f>B92/B91 * 100</f>
+        <v>42.431368576600988</v>
+      </c>
       <c r="F92" s="8">
         <v>30097614</v>
       </c>
       <c r="G92" t="s">
         <v>48</v>
+      </c>
+      <c r="H92">
+        <f>F92/F91 * 100</f>
+        <v>55.104684773011584</v>
       </c>
       <c r="L92" s="1"/>
     </row>
@@ -17959,11 +17948,19 @@
       <c r="C105" t="s">
         <v>48</v>
       </c>
+      <c r="D105">
+        <f>B105/B104 * 100</f>
+        <v>90.06827293491078</v>
+      </c>
       <c r="F105">
         <v>15276274</v>
       </c>
       <c r="G105" t="s">
         <v>48</v>
+      </c>
+      <c r="H105">
+        <f>F105/F104 * 100</f>
+        <v>85.732736859095297</v>
       </c>
       <c r="L105" s="1"/>
     </row>
@@ -18164,11 +18161,19 @@
       <c r="C118" t="s">
         <v>48</v>
       </c>
+      <c r="D118">
+        <f>B118/B117 * 100</f>
+        <v>41.245309852907255</v>
+      </c>
       <c r="F118">
         <v>19567028</v>
       </c>
       <c r="G118" t="s">
         <v>48</v>
+      </c>
+      <c r="H118">
+        <f>F118/F117 * 100</f>
+        <v>32.398227910370274</v>
       </c>
       <c r="L118" s="1"/>
     </row>
@@ -18420,7 +18425,10 @@
       <c r="C131" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D131" s="8"/>
+      <c r="D131">
+        <f>B131/B130 * 100</f>
+        <v>89.689890434320148</v>
+      </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8">
         <v>12766746</v>
@@ -18428,7 +18436,10 @@
       <c r="G131" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H131" s="8"/>
+      <c r="H131">
+        <f>F131/F130 * 100</f>
+        <v>85.102959498131199</v>
+      </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
     </row>
@@ -18676,7 +18687,10 @@
       <c r="C144" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="8"/>
+      <c r="D144">
+        <f>B144/B143 * 100</f>
+        <v>74.33526167076586</v>
+      </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8">
         <v>19027271</v>
@@ -18684,7 +18698,10 @@
       <c r="G144" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H144" s="8"/>
+      <c r="H144">
+        <f>F144/F143 * 100</f>
+        <v>64.483850341713449</v>
+      </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
     </row>
@@ -18932,7 +18949,10 @@
       <c r="C157" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D157" s="8"/>
+      <c r="D157">
+        <f>B157/B156 * 100</f>
+        <v>79.079184867001516</v>
+      </c>
       <c r="E157" s="8"/>
       <c r="F157" s="8">
         <v>23008090</v>
@@ -18940,7 +18960,10 @@
       <c r="G157" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H157" s="8"/>
+      <c r="H157">
+        <f>F157/F156 * 100</f>
+        <v>65.816349531964278</v>
+      </c>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
     </row>
@@ -19171,11 +19194,19 @@
       <c r="C170" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D170">
+        <f>B170/B169 * 100</f>
+        <v>90.448165613640455</v>
+      </c>
       <c r="F170">
         <v>16590036</v>
       </c>
       <c r="G170" t="s">
         <v>48</v>
+      </c>
+      <c r="H170">
+        <f>F170/F169 * 100</f>
+        <v>89.118053876500696</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -19365,11 +19396,19 @@
       <c r="C183" t="s">
         <v>48</v>
       </c>
+      <c r="D183">
+        <f>B183/B182 * 100</f>
+        <v>63.464145866130664</v>
+      </c>
       <c r="F183">
         <v>2789269</v>
       </c>
       <c r="G183" t="s">
         <v>48</v>
+      </c>
+      <c r="H183">
+        <f>F183/F182 * 100</f>
+        <v>75.848405923055964</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -19555,11 +19594,19 @@
       <c r="C196" t="s">
         <v>48</v>
       </c>
+      <c r="D196">
+        <f>B196/B195 * 100</f>
+        <v>58.083214978247646</v>
+      </c>
       <c r="F196" s="8">
         <v>16584349</v>
       </c>
       <c r="G196" t="s">
         <v>48</v>
+      </c>
+      <c r="H196">
+        <f>F196/F195 * 100</f>
+        <v>46.107785746321547</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -19748,11 +19795,19 @@
       <c r="C209" t="s">
         <v>48</v>
       </c>
+      <c r="D209">
+        <f>B209/B208 * 100</f>
+        <v>74.472149071196171</v>
+      </c>
       <c r="F209" s="8">
         <v>11848126</v>
       </c>
       <c r="G209" t="s">
         <v>48</v>
+      </c>
+      <c r="H209">
+        <f>F209/F208 * 100</f>
+        <v>49.798735054969271</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -19942,11 +19997,19 @@
       <c r="C222" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D222">
+        <f>B222/B221 * 100</f>
+        <v>88.765357577323584</v>
+      </c>
       <c r="F222" s="2">
         <v>43347926</v>
       </c>
       <c r="G222" t="s">
         <v>48</v>
+      </c>
+      <c r="H222">
+        <f>F222/F221 * 100</f>
+        <v>82.414743952136703</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -20136,11 +20199,19 @@
       <c r="C235" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D235">
+        <f>B235/B234 * 100</f>
+        <v>41.336166293823126</v>
+      </c>
       <c r="F235" s="8">
         <v>42391591</v>
       </c>
       <c r="G235" t="s">
         <v>48</v>
+      </c>
+      <c r="H235">
+        <f>F235/F234 * 100</f>
+        <v>43.32201045377392</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">

--- a/Data Structures/linked_list/MPMC_Buffer_Test_Data.xlsx
+++ b/Data Structures/linked_list/MPMC_Buffer_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1379,11 +1379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58073088"/>
-        <c:axId val="58075392"/>
+        <c:axId val="39371904"/>
+        <c:axId val="39374208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58073088"/>
+        <c:axId val="39371904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58075392"/>
+        <c:crossAx val="39374208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +1419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58075392"/>
+        <c:axId val="39374208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58073088"/>
+        <c:crossAx val="39371904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1677,11 +1677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39111680"/>
-        <c:axId val="39113856"/>
+        <c:axId val="59198080"/>
+        <c:axId val="59204352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39111680"/>
+        <c:axId val="59198080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,7 +1709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39113856"/>
+        <c:crossAx val="59204352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1717,7 +1717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39113856"/>
+        <c:axId val="59204352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39111680"/>
+        <c:crossAx val="59198080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1975,11 +1975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39599104"/>
-        <c:axId val="39601280"/>
+        <c:axId val="59222656"/>
+        <c:axId val="59233024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39599104"/>
+        <c:axId val="59222656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39601280"/>
+        <c:crossAx val="59233024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2015,7 +2015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39601280"/>
+        <c:axId val="59233024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,7 +2044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39599104"/>
+        <c:crossAx val="59222656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2103,6 +2103,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2562,11 +2563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39641088"/>
-        <c:axId val="39643008"/>
+        <c:axId val="122183040"/>
+        <c:axId val="122283520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39641088"/>
+        <c:axId val="122183040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,13 +2589,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39643008"/>
+        <c:crossAx val="122283520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2602,7 +2604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39643008"/>
+        <c:axId val="122283520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,19 +2627,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39641088"/>
+        <c:crossAx val="122183040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2687,6 +2691,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2999,11 +3004,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39663872"/>
-        <c:axId val="39678336"/>
+        <c:axId val="122464128"/>
+        <c:axId val="122523648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39663872"/>
+        <c:axId val="122464128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,13 +3030,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39678336"/>
+        <c:crossAx val="122523648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3039,7 +3045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39678336"/>
+        <c:axId val="122523648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3062,19 +3068,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39663872"/>
+        <c:crossAx val="122464128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3415,11 +3423,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39695104"/>
-        <c:axId val="39697024"/>
+        <c:axId val="123355520"/>
+        <c:axId val="123357440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39695104"/>
+        <c:axId val="123355520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3447,7 +3455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39697024"/>
+        <c:crossAx val="123357440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3455,7 +3463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39697024"/>
+        <c:axId val="123357440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,7 +3492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39695104"/>
+        <c:crossAx val="123355520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3852,11 +3860,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39926784"/>
-        <c:axId val="39937152"/>
+        <c:axId val="123607680"/>
+        <c:axId val="59245312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39926784"/>
+        <c:axId val="123607680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,7 +3892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39937152"/>
+        <c:crossAx val="59245312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3892,7 +3900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39937152"/>
+        <c:axId val="59245312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3921,7 +3929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39926784"/>
+        <c:crossAx val="123607680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4237,11 +4245,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39947264"/>
-        <c:axId val="39965824"/>
+        <c:axId val="59267712"/>
+        <c:axId val="59269888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39947264"/>
+        <c:axId val="59267712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4270,7 +4278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39965824"/>
+        <c:crossAx val="59269888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4278,7 +4286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39965824"/>
+        <c:axId val="59269888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4308,7 +4316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39947264"/>
+        <c:crossAx val="59267712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4360,6 +4368,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4624,11 +4633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39988224"/>
-        <c:axId val="39994496"/>
+        <c:axId val="59296384"/>
+        <c:axId val="59302656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39988224"/>
+        <c:axId val="59296384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4650,13 +4659,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39994496"/>
+        <c:crossAx val="59302656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4664,7 +4674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39994496"/>
+        <c:axId val="59302656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4687,19 +4697,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39988224"/>
+        <c:crossAx val="59296384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5009,11 +5021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40016896"/>
-        <c:axId val="40019072"/>
+        <c:axId val="59386496"/>
+        <c:axId val="59405056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40016896"/>
+        <c:axId val="59386496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5042,7 +5054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40019072"/>
+        <c:crossAx val="59405056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5050,7 +5062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40019072"/>
+        <c:axId val="59405056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5080,7 +5092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40016896"/>
+        <c:crossAx val="59386496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5889,11 +5901,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40067072"/>
-        <c:axId val="40068992"/>
+        <c:axId val="59448704"/>
+        <c:axId val="59459072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40067072"/>
+        <c:axId val="59448704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5922,7 +5934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40068992"/>
+        <c:crossAx val="59459072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5930,7 +5942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40068992"/>
+        <c:axId val="59459072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5960,7 +5972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40067072"/>
+        <c:crossAx val="59448704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7014,11 +7026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112785280"/>
-        <c:axId val="114274688"/>
+        <c:axId val="40296832"/>
+        <c:axId val="40322176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112785280"/>
+        <c:axId val="40296832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7046,7 +7058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114274688"/>
+        <c:crossAx val="40322176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7054,7 +7066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114274688"/>
+        <c:axId val="40322176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7083,7 +7095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112785280"/>
+        <c:crossAx val="40296832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8062,11 +8074,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40107008"/>
-        <c:axId val="40121472"/>
+        <c:axId val="59505280"/>
+        <c:axId val="59581184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40107008"/>
+        <c:axId val="59505280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8095,7 +8107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40121472"/>
+        <c:crossAx val="59581184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8103,7 +8115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40121472"/>
+        <c:axId val="59581184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8133,7 +8145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40107008"/>
+        <c:crossAx val="59505280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9100,11 +9112,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40158720"/>
-        <c:axId val="40160640"/>
+        <c:axId val="59626624"/>
+        <c:axId val="59628544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40158720"/>
+        <c:axId val="59626624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9133,7 +9145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40160640"/>
+        <c:crossAx val="59628544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9141,7 +9153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40160640"/>
+        <c:axId val="59628544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9171,7 +9183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40158720"/>
+        <c:crossAx val="59626624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10151,11 +10163,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40230912"/>
-        <c:axId val="40232832"/>
+        <c:axId val="59669888"/>
+        <c:axId val="59680256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40230912"/>
+        <c:axId val="59669888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10183,7 +10195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40232832"/>
+        <c:crossAx val="59680256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10191,7 +10203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40232832"/>
+        <c:axId val="59680256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10220,7 +10232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40230912"/>
+        <c:crossAx val="59669888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10550,11 +10562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40583168"/>
-        <c:axId val="40585088"/>
+        <c:axId val="59719040"/>
+        <c:axId val="59721216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40583168"/>
+        <c:axId val="59719040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10582,7 +10594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40585088"/>
+        <c:crossAx val="59721216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10590,7 +10602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40585088"/>
+        <c:axId val="59721216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10619,7 +10631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40583168"/>
+        <c:crossAx val="59719040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10939,11 +10951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40598912"/>
-        <c:axId val="40613376"/>
+        <c:axId val="59751424"/>
+        <c:axId val="59753600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40598912"/>
+        <c:axId val="59751424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10971,7 +10983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40613376"/>
+        <c:crossAx val="59753600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10979,7 +10991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40613376"/>
+        <c:axId val="59753600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11008,7 +11020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40598912"/>
+        <c:crossAx val="59751424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11328,11 +11340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40701312"/>
-        <c:axId val="40707584"/>
+        <c:axId val="59841536"/>
+        <c:axId val="59864192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40701312"/>
+        <c:axId val="59841536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11360,7 +11372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40707584"/>
+        <c:crossAx val="59864192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11368,7 +11380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40707584"/>
+        <c:axId val="59864192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11397,7 +11409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40701312"/>
+        <c:crossAx val="59841536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11717,11 +11729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40717696"/>
-        <c:axId val="40732160"/>
+        <c:axId val="59890688"/>
+        <c:axId val="59892864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40717696"/>
+        <c:axId val="59890688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11749,7 +11761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40732160"/>
+        <c:crossAx val="59892864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11757,7 +11769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40732160"/>
+        <c:axId val="59892864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11786,7 +11798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40717696"/>
+        <c:crossAx val="59890688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12826,11 +12838,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117586944"/>
-        <c:axId val="117761536"/>
+        <c:axId val="42929536"/>
+        <c:axId val="43108992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117586944"/>
+        <c:axId val="42929536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12858,7 +12870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117761536"/>
+        <c:crossAx val="43108992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12866,7 +12878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117761536"/>
+        <c:axId val="43108992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12895,7 +12907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117586944"/>
+        <c:crossAx val="42929536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13129,11 +13141,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38456704"/>
-        <c:axId val="38458880"/>
+        <c:axId val="108862848"/>
+        <c:axId val="120002048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38456704"/>
+        <c:axId val="108862848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13161,7 +13173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38458880"/>
+        <c:crossAx val="120002048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13169,7 +13181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38458880"/>
+        <c:axId val="120002048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13198,7 +13210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38456704"/>
+        <c:crossAx val="108862848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13427,11 +13439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38997376"/>
-        <c:axId val="39007744"/>
+        <c:axId val="121684736"/>
+        <c:axId val="121729024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38997376"/>
+        <c:axId val="121684736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13459,7 +13471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39007744"/>
+        <c:crossAx val="121729024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13467,7 +13479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39007744"/>
+        <c:axId val="121729024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13496,7 +13508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38997376"/>
+        <c:crossAx val="121684736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13725,11 +13737,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39022592"/>
-        <c:axId val="39024512"/>
+        <c:axId val="122375168"/>
+        <c:axId val="122590336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39022592"/>
+        <c:axId val="122375168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13757,7 +13769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39024512"/>
+        <c:crossAx val="122590336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13765,7 +13777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39024512"/>
+        <c:axId val="122590336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13794,7 +13806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39022592"/>
+        <c:crossAx val="122375168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14023,11 +14035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39051264"/>
-        <c:axId val="39053184"/>
+        <c:axId val="123409920"/>
+        <c:axId val="123411840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39051264"/>
+        <c:axId val="123409920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14055,7 +14067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39053184"/>
+        <c:crossAx val="123411840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14063,7 +14075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39053184"/>
+        <c:axId val="123411840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14092,7 +14104,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39051264"/>
+        <c:crossAx val="123409920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14321,11 +14333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39067008"/>
-        <c:axId val="39073280"/>
+        <c:axId val="43080320"/>
+        <c:axId val="43090688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39067008"/>
+        <c:axId val="43080320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14353,7 +14365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39073280"/>
+        <c:crossAx val="43090688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14361,7 +14373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39073280"/>
+        <c:axId val="43090688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14390,7 +14402,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39067008"/>
+        <c:crossAx val="43080320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14598,11 +14610,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39083008"/>
-        <c:axId val="39097472"/>
+        <c:axId val="43145856"/>
+        <c:axId val="59179776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39083008"/>
+        <c:axId val="43145856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14630,7 +14642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39097472"/>
+        <c:crossAx val="59179776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14638,7 +14650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39097472"/>
+        <c:axId val="59179776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14667,7 +14679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39083008"/>
+        <c:crossAx val="43145856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15808,7 +15820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="H235" sqref="H235"/>
     </sheetView>
   </sheetViews>

--- a/Data Structures/linked_list/MPMC_Buffer_Test_Data.xlsx
+++ b/Data Structures/linked_list/MPMC_Buffer_Test_Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="86">
   <si>
     <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Locked</t>
   </si>
@@ -141,21 +141,6 @@
     <t xml:space="preserve"> Lockless MPMC Buffer Key Range 128 (2^7)</t>
   </si>
   <si>
-    <t>Stoker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cube </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoker </t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
     <t>cycles</t>
   </si>
   <si>
@@ -272,6 +257,27 @@
   <si>
     <t>Cube TICKET_RELAX</t>
   </si>
+  <si>
+    <t>Local 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoker 131072 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local 131072 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cube 131072 </t>
+  </si>
+  <si>
+    <t>Stoker 134217728</t>
+  </si>
+  <si>
+    <t>Local 134217728</t>
+  </si>
+  <si>
+    <t>Cube 134217728</t>
+  </si>
 </sst>
 </file>
 
@@ -377,6 +383,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1379,11 +1386,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39371904"/>
-        <c:axId val="39374208"/>
+        <c:axId val="41700352"/>
+        <c:axId val="41706624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39371904"/>
+        <c:axId val="41700352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,13 +1412,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39374208"/>
+        <c:crossAx val="41706624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +1427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39374208"/>
+        <c:axId val="41706624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,19 +1450,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39371904"/>
+        <c:crossAx val="41700352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1512,6 +1522,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1677,11 +1688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59198080"/>
-        <c:axId val="59204352"/>
+        <c:axId val="42661376"/>
+        <c:axId val="42663296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59198080"/>
+        <c:axId val="42661376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,13 +1714,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59204352"/>
+        <c:crossAx val="42663296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1717,7 +1729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59204352"/>
+        <c:axId val="42663296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,19 +1752,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59198080"/>
+        <c:crossAx val="42661376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1810,6 +1824,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1975,11 +1990,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59222656"/>
-        <c:axId val="59233024"/>
+        <c:axId val="42763776"/>
+        <c:axId val="42765696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59222656"/>
+        <c:axId val="42763776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,13 +2016,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59233024"/>
+        <c:crossAx val="42765696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2015,7 +2031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59233024"/>
+        <c:axId val="42765696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,19 +2054,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59222656"/>
+        <c:crossAx val="42763776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2563,11 +2581,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122183040"/>
-        <c:axId val="122283520"/>
+        <c:axId val="42813696"/>
+        <c:axId val="42819968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122183040"/>
+        <c:axId val="42813696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,7 +2614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122283520"/>
+        <c:crossAx val="42819968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2604,7 +2622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122283520"/>
+        <c:axId val="42819968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,7 +2652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122183040"/>
+        <c:crossAx val="42813696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3004,11 +3022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122464128"/>
-        <c:axId val="122523648"/>
+        <c:axId val="75903744"/>
+        <c:axId val="75905664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122464128"/>
+        <c:axId val="75903744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,7 +3055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122523648"/>
+        <c:crossAx val="75905664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3045,7 +3063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122523648"/>
+        <c:axId val="75905664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,7 +3093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122464128"/>
+        <c:crossAx val="75903744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3132,6 +3150,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3190,36 +3209,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS No Pause</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$29</c:f>
@@ -3268,7 +3259,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$30</c:f>
@@ -3317,7 +3308,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$31</c:f>
@@ -3366,7 +3357,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$34</c:f>
@@ -3423,11 +3414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123355520"/>
-        <c:axId val="123357440"/>
+        <c:axId val="110627840"/>
+        <c:axId val="110638208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123355520"/>
+        <c:axId val="110627840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3449,13 +3440,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123357440"/>
+        <c:crossAx val="110638208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3463,7 +3455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123357440"/>
+        <c:axId val="110638208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,19 +3478,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123355520"/>
+        <c:crossAx val="110627840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3548,6 +3542,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3860,11 +3855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123607680"/>
-        <c:axId val="59245312"/>
+        <c:axId val="110679552"/>
+        <c:axId val="110681472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123607680"/>
+        <c:axId val="110679552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3886,13 +3881,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59245312"/>
+        <c:crossAx val="110681472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3900,7 +3896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59245312"/>
+        <c:axId val="110681472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3923,19 +3919,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123607680"/>
+        <c:crossAx val="110679552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3998,7 +3996,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker</c:v>
+                  <c:v>Stoker 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4080,7 +4078,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local </c:v>
+                  <c:v>Local 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4162,7 +4160,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4245,11 +4243,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59267712"/>
-        <c:axId val="59269888"/>
+        <c:axId val="110716416"/>
+        <c:axId val="110718336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59267712"/>
+        <c:axId val="110716416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4278,7 +4276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59269888"/>
+        <c:crossAx val="110718336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4286,7 +4284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59269888"/>
+        <c:axId val="110718336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4316,7 +4314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59267712"/>
+        <c:crossAx val="110716416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4386,7 +4384,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker </c:v>
+                  <c:v>Stoker 131072 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4468,7 +4466,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local </c:v>
+                  <c:v>Local 131072 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4550,7 +4548,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 131072 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4633,11 +4631,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59296384"/>
-        <c:axId val="59302656"/>
+        <c:axId val="110749184"/>
+        <c:axId val="110751104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59296384"/>
+        <c:axId val="110749184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4666,7 +4664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59302656"/>
+        <c:crossAx val="110751104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4674,7 +4672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59302656"/>
+        <c:axId val="110751104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4704,7 +4702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59296384"/>
+        <c:crossAx val="110749184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4774,7 +4772,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker</c:v>
+                  <c:v>Stoker 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4856,7 +4854,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local</c:v>
+                  <c:v>Local 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4938,7 +4936,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5021,11 +5019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59386496"/>
-        <c:axId val="59405056"/>
+        <c:axId val="110794240"/>
+        <c:axId val="110796160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59386496"/>
+        <c:axId val="110794240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5054,7 +5052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59405056"/>
+        <c:crossAx val="110796160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5062,7 +5060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59405056"/>
+        <c:axId val="110796160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5092,7 +5090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59386496"/>
+        <c:crossAx val="110794240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5162,7 +5160,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker</c:v>
+                  <c:v>Stoker 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5244,7 +5242,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local </c:v>
+                  <c:v>Local 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5326,7 +5324,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5408,7 +5406,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker </c:v>
+                  <c:v>Stoker 131072 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5490,7 +5488,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local </c:v>
+                  <c:v>Local 131072 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5572,7 +5570,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 131072 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5654,7 +5652,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker</c:v>
+                  <c:v>Stoker 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5736,7 +5734,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local</c:v>
+                  <c:v>Local 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5818,7 +5816,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5901,11 +5899,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59448704"/>
-        <c:axId val="59459072"/>
+        <c:axId val="116168960"/>
+        <c:axId val="116175232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59448704"/>
+        <c:axId val="116168960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5934,7 +5932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59459072"/>
+        <c:crossAx val="116175232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5942,7 +5940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59459072"/>
+        <c:axId val="116175232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5972,7 +5970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59448704"/>
+        <c:crossAx val="116168960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6024,6 +6022,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7026,11 +7025,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40296832"/>
-        <c:axId val="40322176"/>
+        <c:axId val="109902080"/>
+        <c:axId val="42156416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40296832"/>
+        <c:axId val="109902080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7052,13 +7051,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40322176"/>
+        <c:crossAx val="42156416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7066,7 +7066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40322176"/>
+        <c:axId val="42156416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7089,19 +7089,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40296832"/>
+        <c:crossAx val="109902080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7827,7 +7829,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker</c:v>
+                  <c:v>Stoker 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7909,7 +7911,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker </c:v>
+                  <c:v>Stoker 131072 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7991,7 +7993,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker</c:v>
+                  <c:v>Stoker 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8074,11 +8076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59505280"/>
-        <c:axId val="59581184"/>
+        <c:axId val="116241920"/>
+        <c:axId val="116243840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59505280"/>
+        <c:axId val="116241920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8107,7 +8109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59581184"/>
+        <c:crossAx val="116243840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8115,7 +8117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59581184"/>
+        <c:axId val="116243840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8145,7 +8147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59505280"/>
+        <c:crossAx val="116241920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8865,7 +8867,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local </c:v>
+                  <c:v>Local 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8947,7 +8949,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local </c:v>
+                  <c:v>Local 131072 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9029,7 +9031,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local</c:v>
+                  <c:v>Local 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9112,11 +9114,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59626624"/>
-        <c:axId val="59628544"/>
+        <c:axId val="116314112"/>
+        <c:axId val="116316032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59626624"/>
+        <c:axId val="116314112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9145,7 +9147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59628544"/>
+        <c:crossAx val="116316032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9153,7 +9155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59628544"/>
+        <c:axId val="116316032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9183,7 +9185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59626624"/>
+        <c:crossAx val="116314112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9916,7 +9918,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9998,7 +10000,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 131072 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10080,7 +10082,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10163,11 +10165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59669888"/>
-        <c:axId val="59680256"/>
+        <c:axId val="116369664"/>
+        <c:axId val="116375936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59669888"/>
+        <c:axId val="116369664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10189,13 +10191,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59680256"/>
+        <c:crossAx val="116375936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10203,7 +10206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59680256"/>
+        <c:axId val="116375936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10226,13 +10229,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59669888"/>
+        <c:crossAx val="116369664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10298,6 +10302,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10562,11 +10567,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59719040"/>
-        <c:axId val="59721216"/>
+        <c:axId val="116488448"/>
+        <c:axId val="116502912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59719040"/>
+        <c:axId val="116488448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10588,13 +10593,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59721216"/>
+        <c:crossAx val="116502912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10602,7 +10608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59721216"/>
+        <c:axId val="116502912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10625,19 +10631,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59719040"/>
+        <c:crossAx val="116488448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10687,6 +10695,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10951,11 +10960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59751424"/>
-        <c:axId val="59753600"/>
+        <c:axId val="116520832"/>
+        <c:axId val="116527104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59751424"/>
+        <c:axId val="116520832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10977,13 +10986,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59753600"/>
+        <c:crossAx val="116527104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10991,7 +11001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59753600"/>
+        <c:axId val="116527104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11014,19 +11024,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59751424"/>
+        <c:crossAx val="116520832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11076,6 +11088,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11340,11 +11353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59841536"/>
-        <c:axId val="59864192"/>
+        <c:axId val="116569984"/>
+        <c:axId val="116584448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59841536"/>
+        <c:axId val="116569984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11366,13 +11379,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59864192"/>
+        <c:crossAx val="116584448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11380,7 +11394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59864192"/>
+        <c:axId val="116584448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11403,19 +11417,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59841536"/>
+        <c:crossAx val="116569984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11465,6 +11481,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11729,11 +11746,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59890688"/>
-        <c:axId val="59892864"/>
+        <c:axId val="116995968"/>
+        <c:axId val="117006336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59890688"/>
+        <c:axId val="116995968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11755,13 +11772,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59892864"/>
+        <c:crossAx val="117006336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11769,7 +11787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59892864"/>
+        <c:axId val="117006336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11792,19 +11810,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59890688"/>
+        <c:crossAx val="116995968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11857,6 +11877,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12838,11 +12859,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42929536"/>
-        <c:axId val="43108992"/>
+        <c:axId val="42313216"/>
+        <c:axId val="42315136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42929536"/>
+        <c:axId val="42313216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12864,13 +12885,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43108992"/>
+        <c:crossAx val="42315136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12878,7 +12900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43108992"/>
+        <c:axId val="42315136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12901,13 +12923,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42929536"/>
+        <c:crossAx val="42313216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12976,6 +12999,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13141,11 +13165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108862848"/>
-        <c:axId val="120002048"/>
+        <c:axId val="42415616"/>
+        <c:axId val="42417536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108862848"/>
+        <c:axId val="42415616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13167,13 +13191,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120002048"/>
+        <c:crossAx val="42417536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13181,7 +13206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120002048"/>
+        <c:axId val="42417536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13204,19 +13229,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108862848"/>
+        <c:crossAx val="42415616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13274,6 +13301,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13439,11 +13467,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121684736"/>
-        <c:axId val="121729024"/>
+        <c:axId val="42448384"/>
+        <c:axId val="42450304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121684736"/>
+        <c:axId val="42448384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13465,13 +13493,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121729024"/>
+        <c:crossAx val="42450304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13479,7 +13508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121729024"/>
+        <c:axId val="42450304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13502,19 +13531,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121684736"/>
+        <c:crossAx val="42448384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13572,6 +13603,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13737,11 +13769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122375168"/>
-        <c:axId val="122590336"/>
+        <c:axId val="42485248"/>
+        <c:axId val="42487168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122375168"/>
+        <c:axId val="42485248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13763,13 +13795,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122590336"/>
+        <c:crossAx val="42487168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13777,7 +13810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122590336"/>
+        <c:axId val="42487168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13800,19 +13833,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122375168"/>
+        <c:crossAx val="42485248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13870,6 +13905,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14035,11 +14071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123409920"/>
-        <c:axId val="123411840"/>
+        <c:axId val="42526208"/>
+        <c:axId val="42528128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123409920"/>
+        <c:axId val="42526208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14061,13 +14097,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123411840"/>
+        <c:crossAx val="42528128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14075,7 +14112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123411840"/>
+        <c:axId val="42528128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14098,19 +14135,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123409920"/>
+        <c:crossAx val="42526208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14168,6 +14207,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14333,11 +14373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43080320"/>
-        <c:axId val="43090688"/>
+        <c:axId val="42575360"/>
+        <c:axId val="42577280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43080320"/>
+        <c:axId val="42575360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14359,13 +14399,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43090688"/>
+        <c:crossAx val="42577280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14373,7 +14414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43090688"/>
+        <c:axId val="42577280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14396,19 +14437,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43080320"/>
+        <c:crossAx val="42575360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14466,6 +14509,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14610,11 +14654,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43145856"/>
-        <c:axId val="59179776"/>
+        <c:axId val="42612224"/>
+        <c:axId val="42614144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43145856"/>
+        <c:axId val="42612224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14636,13 +14680,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59179776"/>
+        <c:crossAx val="42614144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14650,7 +14695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59179776"/>
+        <c:axId val="42614144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14673,19 +14718,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43145856"/>
+        <c:crossAx val="42612224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15121,13 +15168,13 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15820,8 +15867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H235" sqref="H235"/>
+    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17070,7 +17117,7 @@
     </row>
     <row r="51" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B51" s="7">
         <v>3423912</v>
@@ -17099,7 +17146,7 @@
     </row>
     <row r="52" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B52" s="7">
         <v>5408971</v>
@@ -17128,7 +17175,7 @@
     </row>
     <row r="53" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B53" s="7">
         <v>3673598</v>
@@ -17207,7 +17254,7 @@
     </row>
     <row r="59" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B59" s="7">
         <v>2667510</v>
@@ -17236,7 +17283,7 @@
     </row>
     <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B60" s="7">
         <v>5524422</v>
@@ -17266,7 +17313,7 @@
     </row>
     <row r="61" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B61" s="7">
         <v>4020573</v>
@@ -17356,7 +17403,7 @@
     </row>
     <row r="67" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B67" s="7">
         <v>2712183</v>
@@ -17386,7 +17433,7 @@
     </row>
     <row r="68" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B68" s="7">
         <v>5693517</v>
@@ -17415,7 +17462,7 @@
     </row>
     <row r="69" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B69" s="7">
         <v>3821154</v>
@@ -17455,7 +17502,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L72" s="1"/>
       <c r="O72" s="2"/>
@@ -17467,22 +17514,22 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B74">
         <v>256846535391</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F74">
         <v>16644060219</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -17491,13 +17538,13 @@
         <v>18664576304</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F75" s="1">
         <v>20355183096</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -17506,13 +17553,13 @@
         <v>65227574</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F76" s="8">
         <v>8692403</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -17521,7 +17568,7 @@
         <v>41988599</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D77">
         <f>B77/B76 * 100</f>
@@ -17531,7 +17578,7 @@
         <v>7343290</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H77">
         <f>F77/F76 * 100</f>
@@ -17544,13 +17591,13 @@
         <v>5706259838</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F78" s="1">
         <v>3480269042</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L78" s="1"/>
     </row>
@@ -17559,13 +17606,13 @@
         <v>6417476</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F79" s="1">
         <v>1644761</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L79" s="1"/>
     </row>
@@ -17574,14 +17621,14 @@
         <v>17464587029</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1">
         <v>1076219200</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L80" s="1"/>
     </row>
@@ -17590,14 +17637,14 @@
         <v>44411</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="1">
         <v>98644</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L81" s="1"/>
       <c r="O81" s="2"/>
@@ -17607,13 +17654,13 @@
         <v>132664.17688300001</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F82" s="1">
         <v>8184.6705359999996</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L82" s="1"/>
       <c r="O82" s="2"/>
@@ -17623,13 +17670,13 @@
         <v>132671.131012</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F83" s="1">
         <v>8184.6877340000001</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L83" s="1"/>
     </row>
@@ -17638,7 +17685,7 @@
         <v>246190096922</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D84">
         <f>B84/B74 *100</f>
@@ -17648,7 +17695,7 @@
         <v>8603339371</v>
       </c>
       <c r="G84" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H84">
         <f>F84/F74 * 100</f>
@@ -17660,7 +17707,7 @@
         <v>133036780390</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D85">
         <f>B85/B74 *100</f>
@@ -17671,7 +17718,7 @@
         <v>4290118281</v>
       </c>
       <c r="G85" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H85">
         <f>F85/F74 * 100</f>
@@ -17687,22 +17734,22 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B89">
         <v>269402570738</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F89" s="8">
         <v>37007949115</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -17710,13 +17757,13 @@
         <v>33767888619</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F90" s="8">
         <v>18880744724</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -17724,13 +17771,13 @@
         <v>85432222</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F91" s="8">
         <v>54618975</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L91" s="1"/>
     </row>
@@ -17739,7 +17786,7 @@
         <v>36250061</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D92">
         <f>B92/B91 * 100</f>
@@ -17749,7 +17796,7 @@
         <v>30097614</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H92">
         <f>F92/F91 * 100</f>
@@ -17762,14 +17809,14 @@
         <v>11407810567</v>
       </c>
       <c r="C93" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="8">
         <v>4880792173</v>
       </c>
       <c r="G93" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L93" s="1"/>
       <c r="O93" s="2"/>
@@ -17779,14 +17826,14 @@
         <v>9740722</v>
       </c>
       <c r="C94" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="8">
         <v>10861442</v>
       </c>
       <c r="G94" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L94" s="1"/>
       <c r="O94" s="2"/>
@@ -17796,14 +17843,14 @@
         <v>18047163977</v>
       </c>
       <c r="C95" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="8">
         <v>2739203762</v>
       </c>
       <c r="G95" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L95" s="1"/>
     </row>
@@ -17812,14 +17859,14 @@
         <v>127139</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="8">
         <v>177612</v>
       </c>
       <c r="G96" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -17827,13 +17874,13 @@
         <v>136724.713911</v>
       </c>
       <c r="C97" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F97" s="8">
         <v>21385.379032000001</v>
       </c>
       <c r="G97" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L97" s="1"/>
     </row>
@@ -17842,14 +17889,14 @@
         <v>136731.121013</v>
       </c>
       <c r="C98" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="8">
         <v>21390.387955999999</v>
       </c>
       <c r="G98" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L98" s="1"/>
       <c r="O98" s="2"/>
@@ -17859,7 +17906,7 @@
         <v>250764746864</v>
       </c>
       <c r="C99" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D99">
         <f>B99/B89 *100</f>
@@ -17869,7 +17916,7 @@
         <v>28157586014</v>
       </c>
       <c r="G99" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H99">
         <f>F99/F89 * 100</f>
@@ -17881,7 +17928,7 @@
         <v>165213250128</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D100">
         <f>B100/B89 *100</f>
@@ -17892,7 +17939,7 @@
         <v>19235301044</v>
       </c>
       <c r="G100" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H100">
         <f>F100/F89 * 100</f>
@@ -17905,22 +17952,22 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B102" s="1">
         <v>11597967394</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E102" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F102">
         <v>14431085401</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L102" s="1"/>
     </row>
@@ -17929,13 +17976,13 @@
         <v>12853509753</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F103">
         <v>16721114066</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -17943,13 +17990,13 @@
         <v>12599722</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F104">
         <v>17818484</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L104" s="1"/>
     </row>
@@ -17958,7 +18005,7 @@
         <v>11348352</v>
       </c>
       <c r="C105" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D105">
         <f>B105/B104 * 100</f>
@@ -17968,7 +18015,7 @@
         <v>15276274</v>
       </c>
       <c r="G105" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H105">
         <f>F105/F104 * 100</f>
@@ -17981,14 +18028,14 @@
         <v>2396897138</v>
       </c>
       <c r="C106" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
         <v>3095347472</v>
       </c>
       <c r="G106" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L106" s="1"/>
       <c r="O106" s="2"/>
@@ -17998,14 +18045,14 @@
         <v>1451956</v>
       </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
         <v>2555573</v>
       </c>
       <c r="G107" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L107" s="1"/>
       <c r="O107" s="2"/>
@@ -18015,13 +18062,13 @@
         <v>1073671341</v>
       </c>
       <c r="C108" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F108">
         <v>1070953357</v>
       </c>
       <c r="G108" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L108" s="1"/>
     </row>
@@ -18030,13 +18077,13 @@
         <v>162829</v>
       </c>
       <c r="C109" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F109">
         <v>218264</v>
       </c>
       <c r="G109" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -18044,13 +18091,13 @@
         <v>8157.8869860000004</v>
       </c>
       <c r="C110" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F110">
         <v>8111.6069010000001</v>
       </c>
       <c r="G110" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L110" s="1"/>
     </row>
@@ -18059,14 +18106,14 @@
         <v>8158.1680850000002</v>
       </c>
       <c r="C111" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
         <v>8111.8240489999998</v>
       </c>
       <c r="G111" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L111" s="1"/>
       <c r="O111" s="2"/>
@@ -18076,7 +18123,7 @@
         <v>6504196891</v>
       </c>
       <c r="C112" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D112">
         <f>B112/B102 *100</f>
@@ -18087,7 +18134,7 @@
         <v>7648527460</v>
       </c>
       <c r="G112" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H112">
         <f>F112/F102 * 100</f>
@@ -18099,7 +18146,7 @@
         <v>5290617480</v>
       </c>
       <c r="C113" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D113">
         <f>B113/B102 *100</f>
@@ -18109,7 +18156,7 @@
         <v>6107461554</v>
       </c>
       <c r="G113" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H113">
         <f>F113/F102 * 100</f>
@@ -18118,22 +18165,22 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B115" s="1">
         <v>290813948377</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E115" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F115">
         <v>76446889194</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -18141,14 +18188,14 @@
         <v>103765580374</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
         <v>60501336843</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -18156,13 +18203,13 @@
         <v>105936976</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F117">
         <v>60395365</v>
       </c>
       <c r="G117" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L117" s="1"/>
     </row>
@@ -18171,7 +18218,7 @@
         <v>43694034</v>
       </c>
       <c r="C118" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D118">
         <f>B118/B117 * 100</f>
@@ -18181,7 +18228,7 @@
         <v>19567028</v>
       </c>
       <c r="G118" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H118">
         <f>F118/F117 * 100</f>
@@ -18194,14 +18241,14 @@
         <v>20893724377</v>
       </c>
       <c r="C119" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
         <v>11859211749</v>
       </c>
       <c r="G119" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L119" s="1"/>
       <c r="O119" s="2"/>
@@ -18211,7 +18258,7 @@
         <v>3210527</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -18219,7 +18266,7 @@
         <v>14154693</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -18232,7 +18279,7 @@
         <v>18184902433</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -18240,7 +18287,7 @@
         <v>4876741549</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -18252,7 +18299,7 @@
         <v>54835</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -18260,7 +18307,7 @@
         <v>79183</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -18271,7 +18318,7 @@
         <v>137568.540389</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -18279,7 +18326,7 @@
         <v>37225.239955999998</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -18291,7 +18338,7 @@
         <v>137568.691957</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -18299,7 +18346,7 @@
         <v>37225.410992999998</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -18312,7 +18359,7 @@
         <v>247772307937</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D125">
         <f>B125/B115 *100</f>
@@ -18323,7 +18370,7 @@
         <v>51747476805</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H125">
         <f>F125/F115 *100</f>
@@ -18337,7 +18384,7 @@
         <v>150545854022</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D126">
         <f>B126/B115 *100</f>
@@ -18348,7 +18395,7 @@
         <v>20873879349</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H126">
         <f>F126/F115 *100</f>
@@ -18370,23 +18417,23 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B128" s="8">
         <v>11015879741</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F128" s="8">
         <v>14586869681</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -18397,7 +18444,7 @@
         <v>13347492339</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -18405,7 +18452,7 @@
         <v>17006486126</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -18416,7 +18463,7 @@
         <v>15256511</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -18424,7 +18471,7 @@
         <v>15001530</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -18435,7 +18482,7 @@
         <v>13683548</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D131">
         <f>B131/B130 * 100</f>
@@ -18446,7 +18493,7 @@
         <v>12766746</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H131">
         <f>F131/F130 * 100</f>
@@ -18460,7 +18507,7 @@
         <v>2555197118</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -18468,7 +18515,7 @@
         <v>3143604826</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
@@ -18479,7 +18526,7 @@
         <v>814916</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -18487,7 +18534,7 @@
         <v>1381952</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -18498,7 +18545,7 @@
         <v>1075997339</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -18506,7 +18553,7 @@
         <v>1068992930</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -18517,7 +18564,7 @@
         <v>197833</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -18525,7 +18572,7 @@
         <v>180361</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -18536,7 +18583,7 @@
         <v>8166.47775</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -18544,7 +18591,7 @@
         <v>8079.7494550000001</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -18555,7 +18602,7 @@
         <v>8166.7429480000001</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -18563,7 +18610,7 @@
         <v>8079.9301660000001</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -18574,7 +18621,7 @@
         <v>5809837922</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D138">
         <f>B138/B128 *100</f>
@@ -18585,7 +18632,7 @@
         <v>7770855723</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H138">
         <f>F138/F128 *100</f>
@@ -18599,7 +18646,7 @@
         <v>4283810695</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D139">
         <f>B139/B128 *100</f>
@@ -18610,7 +18657,7 @@
         <v>5652143425</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H139">
         <f>F139/F128 *100</f>
@@ -18632,23 +18679,23 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B141" s="1">
         <v>201567706764</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F141" s="8">
         <v>17194056166</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -18659,7 +18706,7 @@
         <v>10836200956</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="2"/>
@@ -18667,7 +18714,7 @@
         <v>17237331604</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -18678,7 +18725,7 @@
         <v>56794002</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -18686,7 +18733,7 @@
         <v>29507033</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -18697,7 +18744,7 @@
         <v>42217970</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D144">
         <f>B144/B143 * 100</f>
@@ -18708,7 +18755,7 @@
         <v>19027271</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H144">
         <f>F144/F143 * 100</f>
@@ -18722,7 +18769,7 @@
         <v>2188091243</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
@@ -18730,7 +18777,7 @@
         <v>3279529700</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -18741,7 +18788,7 @@
         <v>4928250</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="2"/>
@@ -18749,7 +18796,7 @@
         <v>4074222</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
@@ -18760,7 +18807,7 @@
         <v>12998739976</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -18768,7 +18815,7 @@
         <v>1261438153</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
@@ -18779,7 +18826,7 @@
         <v>121391</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -18787,7 +18834,7 @@
         <v>230809</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
@@ -18798,7 +18845,7 @@
         <v>98528.636056999996</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -18806,7 +18853,7 @@
         <v>9846.5986759999996</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
@@ -18817,7 +18864,7 @@
         <v>98536.233907999995</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -18825,7 +18872,7 @@
         <v>9847.2070739999999</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -18836,7 +18883,7 @@
         <v>196685181013</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D151">
         <f>B151/B141 *100</f>
@@ -18847,7 +18894,7 @@
         <v>10625053193</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H151">
         <f>F151/F141 *100</f>
@@ -18861,7 +18908,7 @@
         <v>165316378154</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D152">
         <f>B152/B141 *100</f>
@@ -18872,7 +18919,7 @@
         <v>7326766467</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H152">
         <f>F152/F141 *100</f>
@@ -18894,23 +18941,23 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B154" s="8">
         <v>379461434589</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F154" s="8">
         <v>26313527095</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
@@ -18921,7 +18968,7 @@
         <v>8605079664</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
@@ -18929,7 +18976,7 @@
         <v>13949235575</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
@@ -18940,7 +18987,7 @@
         <v>40164783</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
@@ -18948,7 +18995,7 @@
         <v>34958016</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
@@ -18959,7 +19006,7 @@
         <v>31761983</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D157">
         <f>B157/B156 * 100</f>
@@ -18970,7 +19017,7 @@
         <v>23008090</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H157">
         <f>F157/F156 * 100</f>
@@ -18984,7 +19031,7 @@
         <v>1459318397</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
@@ -18992,7 +19039,7 @@
         <v>2665374686</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
@@ -19003,7 +19050,7 @@
         <v>2815291</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
@@ -19011,7 +19058,7 @@
         <v>4576432</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
@@ -19022,7 +19069,7 @@
         <v>24438416593</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
@@ -19030,7 +19077,7 @@
         <v>1776639714</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
@@ -19041,7 +19088,7 @@
         <v>32537</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
@@ -19049,7 +19096,7 @@
         <v>103552</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
@@ -19059,7 +19106,7 @@
         <v>185036.80640199999</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
@@ -19067,7 +19114,7 @@
         <v>13765.720123999999</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
@@ -19077,7 +19124,7 @@
         <v>185037.34150099999</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
@@ -19085,7 +19132,7 @@
         <v>13765.818509999999</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
@@ -19095,7 +19142,7 @@
         <v>376114812791</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D164">
         <f>B164/B154 *100</f>
@@ -19106,7 +19153,7 @@
         <v>20243636046</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H164">
         <f>F164/F154 *100</f>
@@ -19119,7 +19166,7 @@
         <v>322556227530</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D165">
         <f>B165/B154 *100</f>
@@ -19130,7 +19177,7 @@
         <v>16945466118</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H165">
         <f>F165/F154 *100</f>
@@ -19150,23 +19197,23 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B167" s="8">
         <v>12230532571</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D167" s="8"/>
       <c r="E167" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F167" s="8">
         <v>13748658037</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
@@ -19176,13 +19223,13 @@
         <v>13341857929</v>
       </c>
       <c r="C168" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F168">
         <v>16233293987</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -19190,13 +19237,13 @@
         <v>13429232</v>
       </c>
       <c r="C169" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F169">
         <v>18615797</v>
       </c>
       <c r="G169" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -19204,7 +19251,7 @@
         <v>12146494</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D170">
         <f>B170/B169 * 100</f>
@@ -19214,7 +19261,7 @@
         <v>16590036</v>
       </c>
       <c r="G170" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H170">
         <f>F170/F169 * 100</f>
@@ -19226,13 +19273,13 @@
         <v>2475268189</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F171">
         <v>3040794998</v>
       </c>
       <c r="G171" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -19240,13 +19287,13 @@
         <v>551896</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F172">
         <v>1775341</v>
       </c>
       <c r="G172" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -19254,13 +19301,13 @@
         <v>1072784517</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F173">
         <v>1071623262</v>
       </c>
       <c r="G173" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -19268,13 +19315,13 @@
         <v>171397</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F174" s="2">
         <v>241065</v>
       </c>
       <c r="G174" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -19282,13 +19329,13 @@
         <v>8165.5681850000001</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F175" s="2">
         <v>8099.6276449999996</v>
       </c>
       <c r="G175" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -19296,13 +19343,13 @@
         <v>8165.8202350000001</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F176">
         <v>8099.8000140000004</v>
       </c>
       <c r="G176" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -19310,7 +19357,7 @@
         <v>6818351216</v>
       </c>
       <c r="C177" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D177">
         <f>B177/B167 *100</f>
@@ -19320,7 +19367,7 @@
         <v>7117539268</v>
       </c>
       <c r="G177" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H177">
         <f>F177/F167 *100</f>
@@ -19332,7 +19379,7 @@
         <v>5368212422</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D178">
         <f>B178/B167 *100</f>
@@ -19342,7 +19389,7 @@
         <v>5259984128</v>
       </c>
       <c r="G178" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H178">
         <f>F178/F167 *100</f>
@@ -19355,22 +19402,22 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B180">
         <v>1470683613</v>
       </c>
       <c r="C180" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E180" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F180">
         <v>1657097359</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -19378,13 +19425,13 @@
         <v>1813178071</v>
       </c>
       <c r="C181" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F181">
         <v>2082971403</v>
       </c>
       <c r="G181" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -19392,13 +19439,13 @@
         <v>3662646</v>
       </c>
       <c r="C182" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F182">
         <v>3677426</v>
       </c>
       <c r="G182" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -19406,7 +19453,7 @@
         <v>2324467</v>
       </c>
       <c r="C183" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D183">
         <f>B183/B182 * 100</f>
@@ -19416,7 +19463,7 @@
         <v>2789269</v>
       </c>
       <c r="G183" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H183">
         <f>F183/F182 * 100</f>
@@ -19428,13 +19475,13 @@
         <v>348567923</v>
       </c>
       <c r="C184" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F184">
         <v>409926334</v>
       </c>
       <c r="G184" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -19442,13 +19489,13 @@
         <v>273843</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F185">
         <v>441940</v>
       </c>
       <c r="G185" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -19456,13 +19503,13 @@
         <v>142581844</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F186">
         <v>140209874</v>
       </c>
       <c r="G186" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -19470,13 +19517,13 @@
         <v>31317</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F187">
         <v>36544</v>
       </c>
       <c r="G187" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -19484,13 +19531,13 @@
         <v>1099.0949579999999</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F188">
         <v>1062.0515359999999</v>
       </c>
       <c r="G188" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -19498,13 +19545,13 @@
         <v>1099.3947470000001</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F189" s="2">
         <v>1062.4926929999999</v>
       </c>
       <c r="G189" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -19512,7 +19559,7 @@
         <v>746127216</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D190">
         <f>B190/B180 *100</f>
@@ -19522,7 +19569,7 @@
         <v>841334674</v>
       </c>
       <c r="G190" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H190">
         <f>F190/F180 *100</f>
@@ -19534,7 +19581,7 @@
         <v>487507640</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D191">
         <f>B191/B180 *100</f>
@@ -19544,7 +19591,7 @@
         <v>379105662</v>
       </c>
       <c r="G191" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H191">
         <f>F191/F180 *100</f>
@@ -19553,22 +19600,22 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B193">
         <v>378681034403</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E193" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F193" s="8">
         <v>59750830164</v>
       </c>
       <c r="G193" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -19576,13 +19623,13 @@
         <v>35804769422</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F194" s="8">
         <v>30363027310</v>
       </c>
       <c r="G194" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -19590,13 +19637,13 @@
         <v>49861961</v>
       </c>
       <c r="C195" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F195" s="8">
         <v>35968652</v>
       </c>
       <c r="G195" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -19604,7 +19651,7 @@
         <v>28961430</v>
       </c>
       <c r="C196" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D196">
         <f>B196/B195 * 100</f>
@@ -19614,7 +19661,7 @@
         <v>16584349</v>
       </c>
       <c r="G196" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H196">
         <f>F196/F195 * 100</f>
@@ -19626,13 +19673,13 @@
         <v>8321887480</v>
       </c>
       <c r="C197" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F197" s="8">
         <v>6336862948</v>
       </c>
       <c r="G197" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -19640,13 +19687,13 @@
         <v>8105295</v>
       </c>
       <c r="C198" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F198" s="8">
         <v>10591094</v>
       </c>
       <c r="G198" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -19654,13 +19701,13 @@
         <v>24231525805</v>
       </c>
       <c r="C199" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F199" s="8">
         <v>3852958230</v>
       </c>
       <c r="G199" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -19668,13 +19715,13 @@
         <v>38368</v>
       </c>
       <c r="C200" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F200" s="8">
         <v>80968</v>
       </c>
       <c r="G200" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -19682,13 +19729,13 @@
         <v>183781.261772</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F201" s="8">
         <v>29415.225584</v>
       </c>
       <c r="G201" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -19696,13 +19743,13 @@
         <v>183781.73663299999</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F202" s="8">
         <v>29415.365613000002</v>
       </c>
       <c r="G202" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -19710,7 +19757,7 @@
         <v>363210622551</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D203">
         <f>B203/B193 *100</f>
@@ -19720,7 +19767,7 @@
         <v>47305651049</v>
       </c>
       <c r="G203" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H203">
         <f>F203/F193 *100</f>
@@ -19732,7 +19779,7 @@
         <v>287955139848</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D204">
         <f>B204/B193 *100</f>
@@ -19742,7 +19789,7 @@
         <v>27814351801</v>
       </c>
       <c r="G204" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H204">
         <f>F204/F193 *100</f>
@@ -19754,22 +19801,22 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B206">
         <v>149484514476</v>
       </c>
       <c r="C206" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E206" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F206" s="8">
         <v>18579509735</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -19777,13 +19824,13 @@
         <v>12826764758</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F207" s="8">
         <v>16692176082</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -19791,13 +19838,13 @@
         <v>61428849</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F208" s="8">
         <v>23792022</v>
       </c>
       <c r="G208" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -19805,7 +19852,7 @@
         <v>45747384</v>
       </c>
       <c r="C209" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D209">
         <f>B209/B208 * 100</f>
@@ -19815,7 +19862,7 @@
         <v>11848126</v>
       </c>
       <c r="G209" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H209">
         <f>F209/F208 * 100</f>
@@ -19827,13 +19874,13 @@
         <v>2979869789</v>
       </c>
       <c r="C210" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F210" s="8">
         <v>2971800775</v>
       </c>
       <c r="G210" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -19841,13 +19888,13 @@
         <v>7593625</v>
       </c>
       <c r="C211" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F211" s="8">
         <v>3454099</v>
       </c>
       <c r="G211" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -19855,13 +19902,13 @@
         <v>10063625979</v>
       </c>
       <c r="C212" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F212" s="8">
         <v>1322737974</v>
       </c>
       <c r="G212" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -19869,13 +19916,13 @@
         <v>105586</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F213" s="8">
         <v>122139</v>
       </c>
       <c r="G213" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -19883,13 +19930,13 @@
         <v>76483.200364999997</v>
       </c>
       <c r="C214" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F214" s="8">
         <v>10210.850779</v>
       </c>
       <c r="G214" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -19897,13 +19944,13 @@
         <v>76486.219656999994</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F215" s="8">
         <v>10211.304778</v>
       </c>
       <c r="G215" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -19911,7 +19958,7 @@
         <v>143386668020</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D216">
         <f>B216/B206 *100</f>
@@ -19921,7 +19968,7 @@
         <v>12299541081</v>
       </c>
       <c r="G216" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H216">
         <f>F216/F206 *100</f>
@@ -19933,7 +19980,7 @@
         <v>117032706942</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D217">
         <f>B217/B206 *100</f>
@@ -19943,7 +19990,7 @@
         <v>8187312744</v>
       </c>
       <c r="G217" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H217">
         <f>F217/F206 *100</f>
@@ -19956,22 +20003,22 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B219">
         <v>382576626690</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E219" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F219">
         <v>28939827189</v>
       </c>
       <c r="G219" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -19979,13 +20026,13 @@
         <v>8943110252</v>
       </c>
       <c r="C220" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F220">
         <v>13366863509</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -19993,13 +20040,13 @@
         <v>37586332</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F221">
         <v>52597295</v>
       </c>
       <c r="G221" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -20007,7 +20054,7 @@
         <v>33363642</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D222">
         <f>B222/B221 * 100</f>
@@ -20017,7 +20064,7 @@
         <v>43347926</v>
       </c>
       <c r="G222" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H222">
         <f>F222/F221 * 100</f>
@@ -20029,13 +20076,13 @@
         <v>1565174211</v>
       </c>
       <c r="C223" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F223">
         <v>2272663689</v>
       </c>
       <c r="G223" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -20043,13 +20090,13 @@
         <v>2528617</v>
       </c>
       <c r="C224" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F224">
         <v>4656550</v>
       </c>
       <c r="G224" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -20057,13 +20104,13 @@
         <v>24178033139</v>
       </c>
       <c r="C225" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F225">
         <v>2063908885</v>
       </c>
       <c r="G225" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -20071,13 +20118,13 @@
         <v>77634</v>
       </c>
       <c r="C226" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F226">
         <v>130303</v>
       </c>
       <c r="G226" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -20085,13 +20132,13 @@
         <v>183269.224984</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F227">
         <v>15840.935517</v>
       </c>
       <c r="G227" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -20099,13 +20146,13 @@
         <v>183269.68877800001</v>
       </c>
       <c r="C228" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F228">
         <v>15841.024504999999</v>
       </c>
       <c r="G228" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -20113,7 +20160,7 @@
         <v>377741660283</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D229">
         <f>B229/B219 *100</f>
@@ -20123,7 +20170,7 @@
         <v>24034425402</v>
       </c>
       <c r="G229" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H229">
         <f>F229/F219 *100</f>
@@ -20135,7 +20182,7 @@
         <v>316273725027</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D230">
         <f>B230/B219 *100</f>
@@ -20145,7 +20192,7 @@
         <v>19681950105</v>
       </c>
       <c r="G230" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H230">
         <f>F230/F219 *100</f>
@@ -20158,22 +20205,22 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B232">
         <v>430854414867</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E232" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F232" s="8">
         <v>241443568989</v>
       </c>
       <c r="G232" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -20181,13 +20228,13 @@
         <v>134606357412</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F233" s="8">
         <v>90494514660</v>
       </c>
       <c r="G233" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -20195,13 +20242,13 @@
         <v>79641539</v>
       </c>
       <c r="C234" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F234" s="8">
         <v>97852317</v>
       </c>
       <c r="G234" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -20209,7 +20256,7 @@
         <v>32920759</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D235">
         <f>B235/B234 * 100</f>
@@ -20219,7 +20266,7 @@
         <v>42391591</v>
       </c>
       <c r="G235" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H235">
         <f>F235/F234 * 100</f>
@@ -20231,13 +20278,13 @@
         <v>16990204325</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F236" s="8">
         <v>11700296937</v>
       </c>
       <c r="G236" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -20245,13 +20292,13 @@
         <v>4844196</v>
       </c>
       <c r="C237" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F237" s="8">
         <v>7548051</v>
       </c>
       <c r="G237" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -20259,13 +20306,13 @@
         <v>26994970831</v>
       </c>
       <c r="C238" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F238" s="8">
         <v>13637235076</v>
       </c>
       <c r="G238" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -20273,13 +20320,13 @@
         <v>48542</v>
       </c>
       <c r="C239" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F239" s="8">
         <v>57030</v>
       </c>
       <c r="G239" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -20287,13 +20334,13 @@
         <v>204031.79026099999</v>
       </c>
       <c r="C240" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F240" s="8">
         <v>103022.29640599999</v>
       </c>
       <c r="G240" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
@@ -20301,13 +20348,13 @@
         <v>204031.863989</v>
       </c>
       <c r="C241" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F241" s="8">
         <v>103022.567652</v>
       </c>
       <c r="G241" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
@@ -20315,7 +20362,7 @@
         <v>372742227035</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D242">
         <f>B242/B232 *100</f>
@@ -20325,7 +20372,7 @@
         <v>201935411158</v>
       </c>
       <c r="G242" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H242">
         <f>F242/F232 *100</f>
@@ -20337,7 +20384,7 @@
         <v>293013074379</v>
       </c>
       <c r="C243" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D243">
         <f>B243/B232 *100</f>
@@ -20347,7 +20394,7 @@
         <v>146301402644</v>
       </c>
       <c r="G243" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H243">
         <f>F243/F232 *100</f>

--- a/Data Structures/linked_list/MPMC_Buffer_Test_Data.xlsx
+++ b/Data Structures/linked_list/MPMC_Buffer_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,115 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="86">
-  <si>
-    <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Locked</t>
-  </si>
-  <si>
-    <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock</t>
-  </si>
-  <si>
-    <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS</t>
-  </si>
-  <si>
-    <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Ticket</t>
-  </si>
-  <si>
-    <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS No Pause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS </t>
-  </si>
-  <si>
-    <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS No Pause</t>
-  </si>
-  <si>
-    <t>16 Core Intel CPU @ 2.27 GHz (C Cube ) Locked</t>
-  </si>
-  <si>
-    <t>16 Core Intel CPU @ 2.27 GHz (C ) CAS</t>
-  </si>
-  <si>
-    <t>16 Core Intel CPU @ 2.27 GHz (C ) Ticket</t>
-  </si>
-  <si>
-    <t>16 Core Intel CPU @ 2.27 GHz (C) TAS</t>
-  </si>
-  <si>
-    <t>16 Core Intel CPU @ 2.27 GHz (C) TAS No Pause</t>
-  </si>
-  <si>
-    <t>16 Core Intel CPU @ 2.27 GHz (C ) TTAS No Pause</t>
-  </si>
-  <si>
-    <t>16 Core Intel CPU @ 2.27 GHz (C ) TTAS</t>
-  </si>
-  <si>
-    <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock No Delay</t>
-  </si>
-  <si>
-    <t>16 Core Intel CPU @ 2.27 GHz (C ) CAS No Delay</t>
-  </si>
-  <si>
-    <t>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Locked</t>
-  </si>
-  <si>
-    <t>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock</t>
-  </si>
-  <si>
-    <t>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock No Delay</t>
-  </si>
-  <si>
-    <t>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Ticket</t>
-  </si>
-  <si>
-    <t>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS</t>
-  </si>
-  <si>
-    <t>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS No Pause</t>
-  </si>
-  <si>
-    <t>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS No Pause</t>
-  </si>
-  <si>
-    <t>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS</t>
-  </si>
-  <si>
-    <t>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS_RELAX</t>
-  </si>
-  <si>
-    <t>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CASLOCK_RELAX</t>
-  </si>
-  <si>
-    <t>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TICKET_RELAX</t>
-  </si>
-  <si>
-    <t>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS_RELAX</t>
-  </si>
-  <si>
-    <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS_RELAX</t>
-  </si>
-  <si>
-    <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CASLOCK_RELAX</t>
-  </si>
-  <si>
-    <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TICKET_RELAX</t>
-  </si>
-  <si>
-    <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS_RELAX</t>
-  </si>
-  <si>
-    <t>16 Core Intel CPU @ 2.27 GHz (C ) TTAS_RELAX</t>
-  </si>
-  <si>
-    <t>16 Core Intel CPU @ 2.27 GHz (C ) CASLOCK_RELAX</t>
-  </si>
-  <si>
-    <t>16 Core Intel CPU @ 2.27 GHz (C ) TICKET_RELAX</t>
-  </si>
-  <si>
-    <t>16 Core Intel CPU @ 2.27 GHz (C ) TAS_RELAX</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="85">
   <si>
     <t xml:space="preserve"> Locked MPMC Buffer Key Range 128</t>
   </si>
@@ -258,25 +150,130 @@
     <t>Cube TICKET_RELAX</t>
   </si>
   <si>
-    <t>Local 128</t>
+    <t>Stoker (32 Core)</t>
   </si>
   <si>
-    <t xml:space="preserve">Stoker 131072 </t>
+    <t>Local (4 Core)</t>
   </si>
   <si>
-    <t xml:space="preserve">Local 131072 </t>
+    <t>Cube (16 Core)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cube 131072 </t>
+    <t>Stoker (32 Core) Locked</t>
   </si>
   <si>
-    <t>Stoker 134217728</t>
+    <t>Stoker (32 Core) CAS lock</t>
   </si>
   <si>
-    <t>Local 134217728</t>
+    <t>Stoker (32 Core) CAS lock No Delay</t>
   </si>
   <si>
-    <t>Cube 134217728</t>
+    <t>Stoker (32 Core) Ticket</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) TAS</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) TAS No Pause</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) TTAS No Pause</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) TTAS</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) TTAS_RELAX</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) CASLOCK_RELAX</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) TICKET_RELAX</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) TAS_RELAX</t>
+  </si>
+  <si>
+    <t>Local (4 Core) Locked</t>
+  </si>
+  <si>
+    <t>Local (4 Core) CAS lock</t>
+  </si>
+  <si>
+    <t>Local (4 Core) CAS lock No Delay</t>
+  </si>
+  <si>
+    <t>Local (4 Core) Ticket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local (4 Core) TAS </t>
+  </si>
+  <si>
+    <t>Local (4 Core) TAS No Pause</t>
+  </si>
+  <si>
+    <t>Local (4 Core) TTAS No Pause</t>
+  </si>
+  <si>
+    <t>Local (4 Core) TTAS</t>
+  </si>
+  <si>
+    <t>Local (4 Core) TTAS_RELAX</t>
+  </si>
+  <si>
+    <t>Local (4 Core) CASLOCK_RELAX</t>
+  </si>
+  <si>
+    <t>Local (4 Core) TICKET_RELAX</t>
+  </si>
+  <si>
+    <t>Local (4 Core) TAS_RELAX</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) Locked</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) CAS</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) CAS No Delay</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) Ticket</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) TAS</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) TAS No Pause</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) TTAS No Pause</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) TTAS</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) TTAS_RELAX</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) CASLOCK_RELAX</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) TICKET_RELAX</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) TAS_RELAX</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) Lockless</t>
+  </si>
+  <si>
+    <t>Local (4 Core) Lockless</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) Lockless</t>
   </si>
 </sst>
 </file>
@@ -401,7 +398,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Locked</c:v>
+                  <c:v>Stoker (32 Core) Locked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -483,7 +480,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock</c:v>
+                  <c:v>Stoker (32 Core) CAS lock</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -565,7 +562,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock No Delay</c:v>
+                  <c:v>Stoker (32 Core) CAS lock No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -647,7 +644,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Ticket</c:v>
+                  <c:v>Stoker (32 Core) Ticket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -729,7 +726,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS</c:v>
+                  <c:v>Stoker (32 Core) TAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -811,7 +808,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS No Pause</c:v>
+                  <c:v>Stoker (32 Core) TAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -893,7 +890,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS No Pause</c:v>
+                  <c:v>Stoker (32 Core) TTAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -975,7 +972,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS</c:v>
+                  <c:v>Stoker (32 Core) TTAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1057,7 +1054,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS_RELAX</c:v>
+                  <c:v>Stoker (32 Core) TTAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1139,7 +1136,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CASLOCK_RELAX</c:v>
+                  <c:v>Stoker (32 Core) CASLOCK_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1221,7 +1218,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TICKET_RELAX</c:v>
+                  <c:v>Stoker (32 Core) TICKET_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1303,7 +1300,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS_RELAX</c:v>
+                  <c:v>Stoker (32 Core) TAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1386,11 +1383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41700352"/>
-        <c:axId val="41706624"/>
+        <c:axId val="99156736"/>
+        <c:axId val="99158656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41700352"/>
+        <c:axId val="99156736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,7 +1416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41706624"/>
+        <c:crossAx val="99158656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1427,7 +1424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41706624"/>
+        <c:axId val="99158656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41700352"/>
+        <c:crossAx val="99156736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1522,7 +1519,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1540,7 +1536,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS No Pause</c:v>
+                  <c:v>Stoker (32 Core) TTAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1589,7 +1585,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS No Pause</c:v>
+                  <c:v>Local (4 Core) TTAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1638,7 +1634,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS No Pause</c:v>
+                  <c:v>Cube (16 Core) TTAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1688,11 +1684,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42661376"/>
-        <c:axId val="42663296"/>
+        <c:axId val="100563584"/>
+        <c:axId val="100569856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42661376"/>
+        <c:axId val="100563584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,14 +1710,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42663296"/>
+        <c:crossAx val="100569856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1729,7 +1724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42663296"/>
+        <c:axId val="100569856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,21 +1747,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42661376"/>
+        <c:crossAx val="100563584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1824,7 +1817,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1842,7 +1834,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS</c:v>
+                  <c:v>Stoker (32 Core) TTAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1891,7 +1883,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS</c:v>
+                  <c:v>Local (4 Core) TTAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1940,7 +1932,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS</c:v>
+                  <c:v>Cube (16 Core) TTAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1990,11 +1982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42763776"/>
-        <c:axId val="42765696"/>
+        <c:axId val="100600448"/>
+        <c:axId val="100602624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42763776"/>
+        <c:axId val="100600448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,14 +2008,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42765696"/>
+        <c:crossAx val="100602624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2031,7 +2022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42765696"/>
+        <c:axId val="100602624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,21 +2045,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42763776"/>
+        <c:crossAx val="100600448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2139,7 +2128,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock</c:v>
+                  <c:v>Stoker (32 Core) CAS lock</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2188,7 +2177,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock No Delay</c:v>
+                  <c:v>Stoker (32 Core) CAS lock No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2237,7 +2226,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CASLOCK_RELAX</c:v>
+                  <c:v>Stoker (32 Core) CASLOCK_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2286,7 +2275,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock</c:v>
+                  <c:v>Local (4 Core) CAS lock</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2335,7 +2324,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock No Delay</c:v>
+                  <c:v>Local (4 Core) CAS lock No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2384,7 +2373,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CASLOCK_RELAX</c:v>
+                  <c:v>Local (4 Core) CASLOCK_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2433,7 +2422,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CAS</c:v>
+                  <c:v>Cube (16 Core) CAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2482,7 +2471,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CAS No Delay</c:v>
+                  <c:v>Cube (16 Core) CAS No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2531,7 +2520,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CASLOCK_RELAX</c:v>
+                  <c:v>Cube (16 Core) CASLOCK_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2581,11 +2570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42813696"/>
-        <c:axId val="42819968"/>
+        <c:axId val="100208000"/>
+        <c:axId val="100214272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42813696"/>
+        <c:axId val="100208000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,7 +2603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42819968"/>
+        <c:crossAx val="100214272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2622,7 +2611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42819968"/>
+        <c:axId val="100214272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,7 +2641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42813696"/>
+        <c:crossAx val="100208000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2727,7 +2716,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS</c:v>
+                  <c:v>Stoker (32 Core) TAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2776,7 +2765,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS No Pause</c:v>
+                  <c:v>Stoker (32 Core) TAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2825,7 +2814,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS No Pause</c:v>
+                  <c:v>Stoker (32 Core) TTAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2874,7 +2863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS</c:v>
+                  <c:v>Stoker (32 Core) TTAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2923,7 +2912,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS_RELAX</c:v>
+                  <c:v>Stoker (32 Core) TTAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2972,7 +2961,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS_RELAX</c:v>
+                  <c:v>Stoker (32 Core) TAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3022,11 +3011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75903744"/>
-        <c:axId val="75905664"/>
+        <c:axId val="100255616"/>
+        <c:axId val="100261888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75903744"/>
+        <c:axId val="100255616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3055,7 +3044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75905664"/>
+        <c:crossAx val="100261888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3063,7 +3052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75905664"/>
+        <c:axId val="100261888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3093,7 +3082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75903744"/>
+        <c:crossAx val="100255616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3168,7 +3157,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS </c:v>
+                  <c:v>Local (4 Core) TAS </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3217,7 +3206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS No Pause</c:v>
+                  <c:v>Local (4 Core) TTAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3266,7 +3255,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS</c:v>
+                  <c:v>Local (4 Core) TTAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3315,7 +3304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS_RELAX</c:v>
+                  <c:v>Local (4 Core) TTAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3364,7 +3353,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS_RELAX</c:v>
+                  <c:v>Local (4 Core) TAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3414,11 +3403,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110627840"/>
-        <c:axId val="110638208"/>
+        <c:axId val="100294016"/>
+        <c:axId val="100304384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110627840"/>
+        <c:axId val="100294016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3447,7 +3436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110638208"/>
+        <c:crossAx val="100304384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3455,7 +3444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110638208"/>
+        <c:axId val="100304384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3485,7 +3474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110627840"/>
+        <c:crossAx val="100294016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3560,7 +3549,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C) TAS</c:v>
+                  <c:v>Cube (16 Core) TAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3609,7 +3598,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C) TAS No Pause</c:v>
+                  <c:v>Cube (16 Core) TAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3658,7 +3647,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS No Pause</c:v>
+                  <c:v>Cube (16 Core) TTAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3707,7 +3696,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS</c:v>
+                  <c:v>Cube (16 Core) TTAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3756,7 +3745,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS_RELAX</c:v>
+                  <c:v>Cube (16 Core) TTAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3805,7 +3794,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TAS_RELAX</c:v>
+                  <c:v>Cube (16 Core) TAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3814,7 +3803,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$46:$I$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4196321</c:v>
@@ -3855,11 +3844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110679552"/>
-        <c:axId val="110681472"/>
+        <c:axId val="100411264"/>
+        <c:axId val="100421632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110679552"/>
+        <c:axId val="100411264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +3877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110681472"/>
+        <c:crossAx val="100421632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3896,7 +3885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110681472"/>
+        <c:axId val="100421632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3926,7 +3915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110679552"/>
+        <c:crossAx val="100411264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3996,7 +3985,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker 128</c:v>
+                  <c:v>Stoker (32 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4078,7 +4067,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 128</c:v>
+                  <c:v>Local (4 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4160,7 +4149,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 128</c:v>
+                  <c:v>Cube (16 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4243,11 +4232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110716416"/>
-        <c:axId val="110718336"/>
+        <c:axId val="100448128"/>
+        <c:axId val="100458496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110716416"/>
+        <c:axId val="100448128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4276,7 +4265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110718336"/>
+        <c:crossAx val="100458496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4284,7 +4273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110718336"/>
+        <c:axId val="100458496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4314,7 +4303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110716416"/>
+        <c:crossAx val="100448128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4384,7 +4373,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker 131072 </c:v>
+                  <c:v>Stoker (32 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4466,7 +4455,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 131072 </c:v>
+                  <c:v>Local (4 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4548,7 +4537,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 131072 </c:v>
+                  <c:v>Cube (16 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4631,11 +4620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110749184"/>
-        <c:axId val="110751104"/>
+        <c:axId val="100755328"/>
+        <c:axId val="100765696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110749184"/>
+        <c:axId val="100755328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4664,7 +4653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110751104"/>
+        <c:crossAx val="100765696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4672,7 +4661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110751104"/>
+        <c:axId val="100765696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4702,7 +4691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110749184"/>
+        <c:crossAx val="100755328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4772,7 +4761,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker 134217728</c:v>
+                  <c:v>Stoker (32 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4854,7 +4843,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 134217728</c:v>
+                  <c:v>Local (4 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4936,7 +4925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 134217728</c:v>
+                  <c:v>Cube (16 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5019,11 +5008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110794240"/>
-        <c:axId val="110796160"/>
+        <c:axId val="101320576"/>
+        <c:axId val="101326848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110794240"/>
+        <c:axId val="101320576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5052,7 +5041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110796160"/>
+        <c:crossAx val="101326848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5060,7 +5049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110796160"/>
+        <c:axId val="101326848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5090,7 +5079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110794240"/>
+        <c:crossAx val="101320576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5160,7 +5149,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker 128</c:v>
+                  <c:v>Stoker (32 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5242,7 +5231,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 128</c:v>
+                  <c:v>Local (4 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5324,7 +5313,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 128</c:v>
+                  <c:v>Cube (16 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5406,7 +5395,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker 131072 </c:v>
+                  <c:v>Stoker (32 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5488,7 +5477,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 131072 </c:v>
+                  <c:v>Local (4 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5570,7 +5559,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 131072 </c:v>
+                  <c:v>Cube (16 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5652,7 +5641,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker 134217728</c:v>
+                  <c:v>Stoker (32 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5734,7 +5723,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 134217728</c:v>
+                  <c:v>Local (4 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5816,7 +5805,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 134217728</c:v>
+                  <c:v>Cube (16 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5899,11 +5888,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116168960"/>
-        <c:axId val="116175232"/>
+        <c:axId val="101124736"/>
+        <c:axId val="101131008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116168960"/>
+        <c:axId val="101124736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5932,7 +5921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116175232"/>
+        <c:crossAx val="101131008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5940,7 +5929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116175232"/>
+        <c:axId val="101131008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5970,7 +5959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116168960"/>
+        <c:crossAx val="101124736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6022,7 +6011,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6040,7 +6028,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C Cube ) Locked</c:v>
+                  <c:v>Cube (16 Core) Locked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6122,7 +6110,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CAS</c:v>
+                  <c:v>Cube (16 Core) CAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6204,7 +6192,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CAS No Delay</c:v>
+                  <c:v>Cube (16 Core) CAS No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6286,7 +6274,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) Ticket</c:v>
+                  <c:v>Cube (16 Core) Ticket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6368,7 +6356,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C) TAS</c:v>
+                  <c:v>Cube (16 Core) TAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6450,7 +6438,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C) TAS No Pause</c:v>
+                  <c:v>Cube (16 Core) TAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6532,7 +6520,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS No Pause</c:v>
+                  <c:v>Cube (16 Core) TTAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6614,7 +6602,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS</c:v>
+                  <c:v>Cube (16 Core) TTAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6696,7 +6684,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS_RELAX</c:v>
+                  <c:v>Cube (16 Core) TTAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6778,7 +6766,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CASLOCK_RELAX</c:v>
+                  <c:v>Cube (16 Core) CASLOCK_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6860,7 +6848,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TICKET_RELAX</c:v>
+                  <c:v>Cube (16 Core) TICKET_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6942,7 +6930,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TAS_RELAX</c:v>
+                  <c:v>Cube (16 Core) TAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6984,7 +6972,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$46:$I$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4196321</c:v>
@@ -7025,11 +7013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109902080"/>
-        <c:axId val="42156416"/>
+        <c:axId val="99696640"/>
+        <c:axId val="99698560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109902080"/>
+        <c:axId val="99696640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7051,14 +7039,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42156416"/>
+        <c:crossAx val="99698560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7066,7 +7053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42156416"/>
+        <c:axId val="99698560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7089,21 +7076,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109902080"/>
+        <c:crossAx val="99696640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7173,7 +7158,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Locked</c:v>
+                  <c:v>Stoker (32 Core) Locked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7255,7 +7240,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock</c:v>
+                  <c:v>Stoker (32 Core) CAS lock</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7337,7 +7322,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock No Delay</c:v>
+                  <c:v>Stoker (32 Core) CAS lock No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7419,7 +7404,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Ticket</c:v>
+                  <c:v>Stoker (32 Core) Ticket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7501,7 +7486,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS</c:v>
+                  <c:v>Stoker (32 Core) TAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7583,7 +7568,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS No Pause</c:v>
+                  <c:v>Stoker (32 Core) TAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7665,7 +7650,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS No Pause</c:v>
+                  <c:v>Stoker (32 Core) TTAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7747,7 +7732,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS</c:v>
+                  <c:v>Stoker (32 Core) TTAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7829,7 +7814,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker 128</c:v>
+                  <c:v>Stoker (32 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7911,7 +7896,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker 131072 </c:v>
+                  <c:v>Stoker (32 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7993,7 +7978,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker 134217728</c:v>
+                  <c:v>Stoker (32 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8076,11 +8061,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116241920"/>
-        <c:axId val="116243840"/>
+        <c:axId val="101197696"/>
+        <c:axId val="101212160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116241920"/>
+        <c:axId val="101197696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8109,7 +8094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116243840"/>
+        <c:crossAx val="101212160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8117,7 +8102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116243840"/>
+        <c:axId val="101212160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8147,7 +8132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116241920"/>
+        <c:crossAx val="101197696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8232,7 +8217,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Locked</c:v>
+                  <c:v>Local (4 Core) Locked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8314,7 +8299,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock</c:v>
+                  <c:v>Local (4 Core) CAS lock</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8396,7 +8381,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock No Delay</c:v>
+                  <c:v>Local (4 Core) CAS lock No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8478,7 +8463,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Ticket</c:v>
+                  <c:v>Local (4 Core) Ticket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8560,7 +8545,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS </c:v>
+                  <c:v>Local (4 Core) TAS </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8642,7 +8627,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS No Pause</c:v>
+                  <c:v>Local (4 Core) TAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8703,7 +8688,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS No Pause</c:v>
+                  <c:v>Local (4 Core) TTAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8785,7 +8770,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS</c:v>
+                  <c:v>Local (4 Core) TTAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8867,7 +8852,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 128</c:v>
+                  <c:v>Local (4 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8949,7 +8934,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 131072 </c:v>
+                  <c:v>Local (4 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9031,7 +9016,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 134217728</c:v>
+                  <c:v>Local (4 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9114,11 +9099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116314112"/>
-        <c:axId val="116316032"/>
+        <c:axId val="101294464"/>
+        <c:axId val="101296384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116314112"/>
+        <c:axId val="101294464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9147,7 +9132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116316032"/>
+        <c:crossAx val="101296384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9155,7 +9140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116316032"/>
+        <c:axId val="101296384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9185,7 +9170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116314112"/>
+        <c:crossAx val="101294464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9262,7 +9247,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C Cube ) Locked</c:v>
+                  <c:v>Cube (16 Core) Locked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9344,7 +9329,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CAS</c:v>
+                  <c:v>Cube (16 Core) CAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9426,7 +9411,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CAS No Delay</c:v>
+                  <c:v>Cube (16 Core) CAS No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9508,7 +9493,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) Ticket</c:v>
+                  <c:v>Cube (16 Core) Ticket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9590,7 +9575,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C) TAS</c:v>
+                  <c:v>Cube (16 Core) TAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9672,7 +9657,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C) TAS No Pause</c:v>
+                  <c:v>Cube (16 Core) TAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9754,7 +9739,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS No Pause</c:v>
+                  <c:v>Cube (16 Core) TTAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9836,7 +9821,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS</c:v>
+                  <c:v>Cube (16 Core) TTAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9918,7 +9903,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 128</c:v>
+                  <c:v>Cube (16 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10000,7 +9985,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 131072 </c:v>
+                  <c:v>Cube (16 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10082,7 +10067,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 134217728</c:v>
+                  <c:v>Cube (16 Core)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10165,11 +10150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116369664"/>
-        <c:axId val="116375936"/>
+        <c:axId val="101747328"/>
+        <c:axId val="101753600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116369664"/>
+        <c:axId val="101747328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10198,7 +10183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116375936"/>
+        <c:crossAx val="101753600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10206,7 +10191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116375936"/>
+        <c:axId val="101753600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10236,7 +10221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116369664"/>
+        <c:crossAx val="101747328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10302,7 +10287,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10320,7 +10304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS_RELAX</c:v>
+                  <c:v>Stoker (32 Core) TTAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10402,7 +10386,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS_RELAX</c:v>
+                  <c:v>Local (4 Core) TTAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10484,7 +10468,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS_RELAX</c:v>
+                  <c:v>Cube (16 Core) TTAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10567,11 +10551,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116488448"/>
-        <c:axId val="116502912"/>
+        <c:axId val="101780096"/>
+        <c:axId val="101786368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116488448"/>
+        <c:axId val="101780096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10593,14 +10577,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116502912"/>
+        <c:crossAx val="101786368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10608,7 +10591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116502912"/>
+        <c:axId val="101786368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10631,21 +10614,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116488448"/>
+        <c:crossAx val="101780096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10695,7 +10676,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10713,7 +10693,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CASLOCK_RELAX</c:v>
+                  <c:v>Stoker (32 Core) CASLOCK_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10795,7 +10775,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CASLOCK_RELAX</c:v>
+                  <c:v>Local (4 Core) CASLOCK_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10877,7 +10857,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CASLOCK_RELAX</c:v>
+                  <c:v>Cube (16 Core) CASLOCK_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10960,11 +10940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116520832"/>
-        <c:axId val="116527104"/>
+        <c:axId val="101808384"/>
+        <c:axId val="101810560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116520832"/>
+        <c:axId val="101808384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10986,14 +10966,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116527104"/>
+        <c:crossAx val="101810560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11001,7 +10980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116527104"/>
+        <c:axId val="101810560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11024,21 +11003,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116520832"/>
+        <c:crossAx val="101808384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11088,7 +11065,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11106,7 +11082,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TICKET_RELAX</c:v>
+                  <c:v>Stoker (32 Core) TICKET_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11188,7 +11164,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TICKET_RELAX</c:v>
+                  <c:v>Local (4 Core) TICKET_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11270,7 +11246,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TICKET_RELAX</c:v>
+                  <c:v>Cube (16 Core) TICKET_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11353,11 +11329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116569984"/>
-        <c:axId val="116584448"/>
+        <c:axId val="102250752"/>
+        <c:axId val="102257024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116569984"/>
+        <c:axId val="102250752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11379,14 +11355,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116584448"/>
+        <c:crossAx val="102257024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11394,7 +11369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116584448"/>
+        <c:axId val="102257024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11417,21 +11392,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116569984"/>
+        <c:crossAx val="102250752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11481,7 +11454,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11499,7 +11471,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS_RELAX</c:v>
+                  <c:v>Stoker (32 Core) TAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11581,7 +11553,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS_RELAX</c:v>
+                  <c:v>Local (4 Core) TAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11663,7 +11635,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TAS_RELAX</c:v>
+                  <c:v>Cube (16 Core) TAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11705,7 +11677,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$46:$I$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4196321</c:v>
@@ -11746,11 +11718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116995968"/>
-        <c:axId val="117006336"/>
+        <c:axId val="102287616"/>
+        <c:axId val="102302080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116995968"/>
+        <c:axId val="102287616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11772,6 +11744,637 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102302080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102302080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102287616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Singely Linked Buffer;  Local; Mutex Lock vs Lockless; Key Range 128</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4364520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5778530</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9342046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3650029</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2080632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>925639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>938829</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>853328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3596466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>433835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>458235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>440131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>428985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>420847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>418331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>416343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4440919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6468343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8753104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4304106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5333743</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4988117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3261383</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3380024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3423912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4892439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2120942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>993390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>944501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>908252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1117386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1358509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5408971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9218576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11726352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14970837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14935493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14943280</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14338199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14749598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3673598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4823696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9556683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12071043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12213626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12984050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3656617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4745926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="102323712"/>
+        <c:axId val="102325632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="102323712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -11779,7 +12382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117006336"/>
+        <c:crossAx val="102325632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11787,7 +12390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117006336"/>
+        <c:axId val="102325632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11817,7 +12420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116995968"/>
+        <c:crossAx val="102323712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11895,7 +12498,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Locked</c:v>
+                  <c:v>Local (4 Core) Locked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11977,7 +12580,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock</c:v>
+                  <c:v>Local (4 Core) CAS lock</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12059,7 +12662,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock No Delay</c:v>
+                  <c:v>Local (4 Core) CAS lock No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12141,7 +12744,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Ticket</c:v>
+                  <c:v>Local (4 Core) Ticket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12223,7 +12826,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS </c:v>
+                  <c:v>Local (4 Core) TAS </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12305,7 +12908,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS No Pause</c:v>
+                  <c:v>Local (4 Core) TAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12366,7 +12969,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS No Pause</c:v>
+                  <c:v>Local (4 Core) TTAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12448,7 +13051,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS</c:v>
+                  <c:v>Local (4 Core) TTAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12530,7 +13133,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS_RELAX</c:v>
+                  <c:v>Local (4 Core) TTAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12612,7 +13215,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CASLOCK_RELAX</c:v>
+                  <c:v>Local (4 Core) CASLOCK_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12694,7 +13297,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TICKET_RELAX</c:v>
+                  <c:v>Local (4 Core) TICKET_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12776,7 +13379,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS_RELAX</c:v>
+                  <c:v>Local (4 Core) TAS_RELAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12859,11 +13462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42313216"/>
-        <c:axId val="42315136"/>
+        <c:axId val="99744768"/>
+        <c:axId val="99423360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42313216"/>
+        <c:axId val="99744768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12892,7 +13495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42315136"/>
+        <c:crossAx val="99423360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12900,7 +13503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42315136"/>
+        <c:axId val="99423360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12930,7 +13533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42313216"/>
+        <c:crossAx val="99744768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13017,7 +13620,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Locked</c:v>
+                  <c:v>Stoker (32 Core) Locked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13066,7 +13669,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Locked</c:v>
+                  <c:v>Local (4 Core) Locked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13115,7 +13718,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C Cube ) Locked</c:v>
+                  <c:v>Cube (16 Core) Locked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13165,11 +13768,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42415616"/>
-        <c:axId val="42417536"/>
+        <c:axId val="99470336"/>
+        <c:axId val="99476608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42415616"/>
+        <c:axId val="99470336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13198,7 +13801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42417536"/>
+        <c:crossAx val="99476608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13206,7 +13809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42417536"/>
+        <c:axId val="99476608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13236,7 +13839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42415616"/>
+        <c:crossAx val="99470336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13319,7 +13922,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock</c:v>
+                  <c:v>Stoker (32 Core) CAS lock</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13368,7 +13971,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock</c:v>
+                  <c:v>Local (4 Core) CAS lock</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13417,7 +14020,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CAS</c:v>
+                  <c:v>Cube (16 Core) CAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13467,11 +14070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42448384"/>
-        <c:axId val="42450304"/>
+        <c:axId val="99499008"/>
+        <c:axId val="99505280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42448384"/>
+        <c:axId val="99499008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13500,7 +14103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42450304"/>
+        <c:crossAx val="99505280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13508,7 +14111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42450304"/>
+        <c:axId val="99505280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13538,7 +14141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42448384"/>
+        <c:crossAx val="99499008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13621,7 +14224,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock No Delay</c:v>
+                  <c:v>Stoker (32 Core) CAS lock No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13670,7 +14273,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock No Delay</c:v>
+                  <c:v>Local (4 Core) CAS lock No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13719,7 +14322,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CAS No Delay</c:v>
+                  <c:v>Cube (16 Core) CAS No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13769,11 +14372,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42485248"/>
-        <c:axId val="42487168"/>
+        <c:axId val="99554432"/>
+        <c:axId val="99556352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42485248"/>
+        <c:axId val="99554432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13802,7 +14405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42487168"/>
+        <c:crossAx val="99556352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13810,7 +14413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42487168"/>
+        <c:axId val="99556352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13840,7 +14443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42485248"/>
+        <c:crossAx val="99554432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13923,7 +14526,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Ticket</c:v>
+                  <c:v>Stoker (32 Core) Ticket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13972,7 +14575,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Ticket</c:v>
+                  <c:v>Local (4 Core) Ticket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14021,7 +14624,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) Ticket</c:v>
+                  <c:v>Cube (16 Core) Ticket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14071,11 +14674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42526208"/>
-        <c:axId val="42528128"/>
+        <c:axId val="99583104"/>
+        <c:axId val="99585024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42526208"/>
+        <c:axId val="99583104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14104,7 +14707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42528128"/>
+        <c:crossAx val="99585024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14112,7 +14715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42528128"/>
+        <c:axId val="99585024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14142,7 +14745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42526208"/>
+        <c:crossAx val="99583104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14225,7 +14828,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS</c:v>
+                  <c:v>Stoker (32 Core) TAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14274,7 +14877,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS </c:v>
+                  <c:v>Local (4 Core) TAS </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14323,7 +14926,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C) TAS</c:v>
+                  <c:v>Cube (16 Core) TAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14373,11 +14976,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42575360"/>
-        <c:axId val="42577280"/>
+        <c:axId val="99609984"/>
+        <c:axId val="100484608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42575360"/>
+        <c:axId val="99609984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14406,7 +15009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42577280"/>
+        <c:crossAx val="100484608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14414,7 +15017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42577280"/>
+        <c:axId val="100484608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14444,7 +15047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42575360"/>
+        <c:crossAx val="99609984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14509,7 +15112,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14527,7 +15129,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS No Pause</c:v>
+                  <c:v>Stoker (32 Core) TAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14576,7 +15178,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS No Pause</c:v>
+                  <c:v>Local (4 Core) TAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14604,7 +15206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C) TAS No Pause</c:v>
+                  <c:v>Cube (16 Core) TAS No Pause</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14654,11 +15256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42612224"/>
-        <c:axId val="42614144"/>
+        <c:axId val="100526720"/>
+        <c:axId val="100532992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42612224"/>
+        <c:axId val="100526720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14680,14 +15282,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42614144"/>
+        <c:crossAx val="100532992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14695,7 +15296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42614144"/>
+        <c:axId val="100532992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14718,21 +15319,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42612224"/>
+        <c:crossAx val="100526720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15323,16 +15922,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15570,6 +16169,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2295524</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15867,15 +16496,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="7" width="17.28515625" customWidth="1"/>
+    <col min="3" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
@@ -15995,7 +16627,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -16034,7 +16666,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6">
         <v>4364520</v>
@@ -16063,7 +16695,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6">
         <v>2534484</v>
@@ -16092,7 +16724,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6">
         <v>3876267</v>
@@ -16121,7 +16753,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B14" s="6">
         <v>3903521</v>
@@ -16150,7 +16782,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B15" s="6">
         <v>2693284</v>
@@ -16179,7 +16811,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B16" s="6">
         <v>3376347</v>
@@ -16208,7 +16840,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B17" s="6">
         <v>3572599</v>
@@ -16237,7 +16869,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B18" s="6">
         <v>2671790</v>
@@ -16266,7 +16898,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B19" s="6">
         <v>2795023</v>
@@ -16295,7 +16927,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B20" s="6">
         <v>3719776</v>
@@ -16324,7 +16956,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B21" s="6">
         <v>4490316</v>
@@ -16353,7 +16985,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6">
         <v>3787767</v>
@@ -16382,7 +17014,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B23" s="6">
         <v>3596466</v>
@@ -16411,7 +17043,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6">
         <v>5469279</v>
@@ -16440,7 +17072,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B25" s="6">
         <v>5471336</v>
@@ -16469,7 +17101,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B26" s="6">
         <v>6706605</v>
@@ -16498,36 +17130,36 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
+        <v>62</v>
+      </c>
+      <c r="B27" s="6">
         <v>5846832</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>5877694</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>5886523</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>11175686</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <v>11166128</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="6">
         <v>5887908</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="6">
         <v>5876573</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="6">
         <v>11219222</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B28" s="6">
         <v>5863404</v>
@@ -16556,7 +17188,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B29" s="6">
         <v>5859154</v>
@@ -16585,7 +17217,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B30" s="6">
         <v>5576568</v>
@@ -16614,7 +17246,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B31" s="6">
         <v>5582964</v>
@@ -16643,7 +17275,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B32" s="6">
         <v>5463948</v>
@@ -16672,7 +17304,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B33" s="6">
         <v>6678249</v>
@@ -16701,7 +17333,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B34" s="6">
         <v>5706628</v>
@@ -16730,7 +17362,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B35" s="6">
         <v>4440919</v>
@@ -16759,7 +17391,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B36" s="6">
         <v>3913958</v>
@@ -16788,7 +17420,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B37" s="6">
         <v>3874427</v>
@@ -16817,7 +17449,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B38" s="7">
         <v>4572297</v>
@@ -16846,7 +17478,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B39" s="6">
         <v>4192713</v>
@@ -16875,7 +17507,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B40" s="6">
         <v>4096465</v>
@@ -16904,7 +17536,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B41" s="6">
         <v>4048593</v>
@@ -16933,7 +17565,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B42" s="6">
         <v>3993999</v>
@@ -16962,7 +17594,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B43" s="6">
         <v>3996551</v>
@@ -16991,7 +17623,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B44" s="6">
         <v>3909466</v>
@@ -17020,7 +17652,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B45" s="6">
         <v>4570738</v>
@@ -17049,36 +17681,36 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46">
+        <v>81</v>
+      </c>
+      <c r="B46" s="6">
         <v>4196321</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="6">
         <v>3527685</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="6">
         <v>2316647</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="6">
         <v>5365857</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="6">
         <v>1328461</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="6">
         <v>10899020</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="6">
         <v>6935520</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="6">
         <v>5623564</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -17117,7 +17749,7 @@
     </row>
     <row r="51" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B51" s="7">
         <v>3423912</v>
@@ -17146,7 +17778,7 @@
     </row>
     <row r="52" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B52" s="7">
         <v>5408971</v>
@@ -17175,7 +17807,7 @@
     </row>
     <row r="53" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B53" s="7">
         <v>3673598</v>
@@ -17215,7 +17847,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -17254,7 +17886,7 @@
     </row>
     <row r="59" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B59" s="7">
         <v>2667510</v>
@@ -17283,7 +17915,7 @@
     </row>
     <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B60" s="7">
         <v>5524422</v>
@@ -17313,7 +17945,7 @@
     </row>
     <row r="61" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B61" s="7">
         <v>4020573</v>
@@ -17362,7 +17994,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -17403,7 +18035,7 @@
     </row>
     <row r="67" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B67" s="7">
         <v>2712183</v>
@@ -17433,7 +18065,7 @@
     </row>
     <row r="68" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B68" s="7">
         <v>5693517</v>
@@ -17462,7 +18094,7 @@
     </row>
     <row r="69" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B69" s="7">
         <v>3821154</v>
@@ -17502,7 +18134,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="L72" s="1"/>
       <c r="O72" s="2"/>
@@ -17514,22 +18146,22 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B74">
         <v>256846535391</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>51</v>
-      </c>
-      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="F74" s="6">
         <v>16644060219</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -17538,13 +18170,13 @@
         <v>18664576304</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="1">
+        <v>5</v>
+      </c>
+      <c r="F75" s="6">
         <v>20355183096</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -17553,13 +18185,13 @@
         <v>65227574</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76" s="8">
+        <v>6</v>
+      </c>
+      <c r="F76" s="6">
         <v>8692403</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -17568,17 +18200,17 @@
         <v>41988599</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D77">
         <f>B77/B76 * 100</f>
         <v>64.372467692880932</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="6">
         <v>7343290</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H77">
         <f>F77/F76 * 100</f>
@@ -17591,13 +18223,13 @@
         <v>5706259838</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F78" s="1">
+        <v>8</v>
+      </c>
+      <c r="F78" s="6">
         <v>3480269042</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L78" s="1"/>
     </row>
@@ -17606,13 +18238,13 @@
         <v>6417476</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="1">
+        <v>9</v>
+      </c>
+      <c r="F79" s="6">
         <v>1644761</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="L79" s="1"/>
     </row>
@@ -17621,14 +18253,14 @@
         <v>17464587029</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="1">
+      <c r="F80" s="6">
         <v>1076219200</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="L80" s="1"/>
     </row>
@@ -17637,14 +18269,14 @@
         <v>44411</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="1">
+      <c r="F81" s="6">
         <v>98644</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L81" s="1"/>
       <c r="O81" s="2"/>
@@ -17654,13 +18286,13 @@
         <v>132664.17688300001</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="1">
+        <v>12</v>
+      </c>
+      <c r="F82" s="6">
         <v>8184.6705359999996</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="L82" s="1"/>
       <c r="O82" s="2"/>
@@ -17670,13 +18302,13 @@
         <v>132671.131012</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
-      </c>
-      <c r="F83" s="1">
+        <v>13</v>
+      </c>
+      <c r="F83" s="6">
         <v>8184.6877340000001</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="L83" s="1"/>
     </row>
@@ -17685,17 +18317,17 @@
         <v>246190096922</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D84">
         <f>B84/B74 *100</f>
         <v>95.851048388572735</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="6">
         <v>8603339371</v>
       </c>
       <c r="G84" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H84">
         <f>F84/F74 * 100</f>
@@ -17707,18 +18339,18 @@
         <v>133036780390</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D85">
         <f>B85/B74 *100</f>
         <v>51.79621371472922</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="1">
+      <c r="F85" s="6">
         <v>4290118281</v>
       </c>
       <c r="G85" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H85">
         <f>F85/F74 * 100</f>
@@ -17734,22 +18366,22 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B89">
         <v>269402570738</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>56</v>
-      </c>
-      <c r="F89" s="8">
+        <v>20</v>
+      </c>
+      <c r="F89" s="6">
         <v>37007949115</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -17757,13 +18389,13 @@
         <v>33767888619</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
-      </c>
-      <c r="F90" s="8">
+        <v>5</v>
+      </c>
+      <c r="F90" s="6">
         <v>18880744724</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -17771,13 +18403,13 @@
         <v>85432222</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
-      </c>
-      <c r="F91" s="8">
+        <v>6</v>
+      </c>
+      <c r="F91" s="6">
         <v>54618975</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L91" s="1"/>
     </row>
@@ -17786,17 +18418,17 @@
         <v>36250061</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D92">
         <f>B92/B91 * 100</f>
         <v>42.431368576600988</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="6">
         <v>30097614</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H92">
         <f>F92/F91 * 100</f>
@@ -17809,14 +18441,14 @@
         <v>11407810567</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E93" s="2"/>
-      <c r="F93" s="8">
+      <c r="F93" s="6">
         <v>4880792173</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L93" s="1"/>
       <c r="O93" s="2"/>
@@ -17826,14 +18458,14 @@
         <v>9740722</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E94" s="2"/>
-      <c r="F94" s="8">
+      <c r="F94" s="6">
         <v>10861442</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="L94" s="1"/>
       <c r="O94" s="2"/>
@@ -17843,14 +18475,14 @@
         <v>18047163977</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E95" s="2"/>
-      <c r="F95" s="8">
+      <c r="F95" s="6">
         <v>2739203762</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="L95" s="1"/>
     </row>
@@ -17859,14 +18491,14 @@
         <v>127139</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E96" s="2"/>
-      <c r="F96" s="8">
+      <c r="F96" s="6">
         <v>177612</v>
       </c>
       <c r="G96" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -17874,13 +18506,13 @@
         <v>136724.713911</v>
       </c>
       <c r="C97" t="s">
-        <v>48</v>
-      </c>
-      <c r="F97" s="8">
+        <v>12</v>
+      </c>
+      <c r="F97" s="6">
         <v>21385.379032000001</v>
       </c>
       <c r="G97" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="L97" s="1"/>
     </row>
@@ -17889,14 +18521,14 @@
         <v>136731.121013</v>
       </c>
       <c r="C98" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E98" s="2"/>
-      <c r="F98" s="8">
+      <c r="F98" s="6">
         <v>21390.387955999999</v>
       </c>
       <c r="G98" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="L98" s="1"/>
       <c r="O98" s="2"/>
@@ -17906,17 +18538,17 @@
         <v>250764746864</v>
       </c>
       <c r="C99" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D99">
         <f>B99/B89 *100</f>
         <v>93.08179434853065</v>
       </c>
-      <c r="F99" s="8">
+      <c r="F99" s="6">
         <v>28157586014</v>
       </c>
       <c r="G99" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H99">
         <f>F99/F89 * 100</f>
@@ -17928,18 +18560,18 @@
         <v>165213250128</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D100">
         <f>B100/B89 *100</f>
         <v>61.325788271216453</v>
       </c>
       <c r="E100" s="2"/>
-      <c r="F100" s="8">
+      <c r="F100" s="6">
         <v>19235301044</v>
       </c>
       <c r="G100" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H100">
         <f>F100/F89 * 100</f>
@@ -17952,22 +18584,22 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B102" s="1">
         <v>11597967394</v>
       </c>
       <c r="C102" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F102">
         <v>14431085401</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L102" s="1"/>
     </row>
@@ -17976,13 +18608,13 @@
         <v>12853509753</v>
       </c>
       <c r="C103" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F103">
         <v>16721114066</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -17990,13 +18622,13 @@
         <v>12599722</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F104">
         <v>17818484</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L104" s="1"/>
     </row>
@@ -18005,7 +18637,7 @@
         <v>11348352</v>
       </c>
       <c r="C105" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D105">
         <f>B105/B104 * 100</f>
@@ -18015,7 +18647,7 @@
         <v>15276274</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H105">
         <f>F105/F104 * 100</f>
@@ -18028,14 +18660,14 @@
         <v>2396897138</v>
       </c>
       <c r="C106" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
         <v>3095347472</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L106" s="1"/>
       <c r="O106" s="2"/>
@@ -18045,14 +18677,14 @@
         <v>1451956</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
         <v>2555573</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="L107" s="1"/>
       <c r="O107" s="2"/>
@@ -18062,13 +18694,13 @@
         <v>1073671341</v>
       </c>
       <c r="C108" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F108">
         <v>1070953357</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="L108" s="1"/>
     </row>
@@ -18077,13 +18709,13 @@
         <v>162829</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F109">
         <v>218264</v>
       </c>
       <c r="G109" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -18091,13 +18723,13 @@
         <v>8157.8869860000004</v>
       </c>
       <c r="C110" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F110">
         <v>8111.6069010000001</v>
       </c>
       <c r="G110" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="L110" s="1"/>
     </row>
@@ -18106,14 +18738,14 @@
         <v>8158.1680850000002</v>
       </c>
       <c r="C111" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
         <v>8111.8240489999998</v>
       </c>
       <c r="G111" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="L111" s="1"/>
       <c r="O111" s="2"/>
@@ -18123,7 +18755,7 @@
         <v>6504196891</v>
       </c>
       <c r="C112" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D112">
         <f>B112/B102 *100</f>
@@ -18134,7 +18766,7 @@
         <v>7648527460</v>
       </c>
       <c r="G112" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H112">
         <f>F112/F102 * 100</f>
@@ -18146,7 +18778,7 @@
         <v>5290617480</v>
       </c>
       <c r="C113" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D113">
         <f>B113/B102 *100</f>
@@ -18156,7 +18788,7 @@
         <v>6107461554</v>
       </c>
       <c r="G113" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H113">
         <f>F113/F102 * 100</f>
@@ -18165,22 +18797,22 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B115" s="1">
         <v>290813948377</v>
       </c>
       <c r="C115" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F115">
         <v>76446889194</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -18188,14 +18820,14 @@
         <v>103765580374</v>
       </c>
       <c r="C116" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
         <v>60501336843</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -18203,13 +18835,13 @@
         <v>105936976</v>
       </c>
       <c r="C117" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F117">
         <v>60395365</v>
       </c>
       <c r="G117" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L117" s="1"/>
     </row>
@@ -18218,7 +18850,7 @@
         <v>43694034</v>
       </c>
       <c r="C118" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D118">
         <f>B118/B117 * 100</f>
@@ -18228,7 +18860,7 @@
         <v>19567028</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H118">
         <f>F118/F117 * 100</f>
@@ -18241,14 +18873,14 @@
         <v>20893724377</v>
       </c>
       <c r="C119" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
         <v>11859211749</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L119" s="1"/>
       <c r="O119" s="2"/>
@@ -18258,7 +18890,7 @@
         <v>3210527</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -18266,7 +18898,7 @@
         <v>14154693</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -18279,7 +18911,7 @@
         <v>18184902433</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -18287,7 +18919,7 @@
         <v>4876741549</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -18299,7 +18931,7 @@
         <v>54835</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -18307,7 +18939,7 @@
         <v>79183</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -18318,7 +18950,7 @@
         <v>137568.540389</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -18326,7 +18958,7 @@
         <v>37225.239955999998</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -18338,7 +18970,7 @@
         <v>137568.691957</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -18346,7 +18978,7 @@
         <v>37225.410992999998</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -18359,7 +18991,7 @@
         <v>247772307937</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D125">
         <f>B125/B115 *100</f>
@@ -18370,7 +19002,7 @@
         <v>51747476805</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H125">
         <f>F125/F115 *100</f>
@@ -18384,7 +19016,7 @@
         <v>150545854022</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D126">
         <f>B126/B115 *100</f>
@@ -18395,7 +19027,7 @@
         <v>20873879349</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H126">
         <f>F126/F115 *100</f>
@@ -18417,23 +19049,23 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B128" s="8">
         <v>11015879741</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F128" s="8">
         <v>14586869681</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -18444,7 +19076,7 @@
         <v>13347492339</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -18452,7 +19084,7 @@
         <v>17006486126</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -18463,7 +19095,7 @@
         <v>15256511</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -18471,7 +19103,7 @@
         <v>15001530</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -18482,7 +19114,7 @@
         <v>13683548</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D131">
         <f>B131/B130 * 100</f>
@@ -18493,7 +19125,7 @@
         <v>12766746</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H131">
         <f>F131/F130 * 100</f>
@@ -18507,7 +19139,7 @@
         <v>2555197118</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -18515,7 +19147,7 @@
         <v>3143604826</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
@@ -18526,7 +19158,7 @@
         <v>814916</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -18534,7 +19166,7 @@
         <v>1381952</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -18545,7 +19177,7 @@
         <v>1075997339</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -18553,7 +19185,7 @@
         <v>1068992930</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -18564,7 +19196,7 @@
         <v>197833</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -18572,7 +19204,7 @@
         <v>180361</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -18583,7 +19215,7 @@
         <v>8166.47775</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -18591,7 +19223,7 @@
         <v>8079.7494550000001</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -18602,7 +19234,7 @@
         <v>8166.7429480000001</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -18610,7 +19242,7 @@
         <v>8079.9301660000001</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -18621,7 +19253,7 @@
         <v>5809837922</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D138">
         <f>B138/B128 *100</f>
@@ -18632,7 +19264,7 @@
         <v>7770855723</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H138">
         <f>F138/F128 *100</f>
@@ -18646,7 +19278,7 @@
         <v>4283810695</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D139">
         <f>B139/B128 *100</f>
@@ -18657,7 +19289,7 @@
         <v>5652143425</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H139">
         <f>F139/F128 *100</f>
@@ -18679,23 +19311,23 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B141" s="1">
         <v>201567706764</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F141" s="8">
         <v>17194056166</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -18706,7 +19338,7 @@
         <v>10836200956</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="2"/>
@@ -18714,7 +19346,7 @@
         <v>17237331604</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -18725,7 +19357,7 @@
         <v>56794002</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -18733,7 +19365,7 @@
         <v>29507033</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -18744,7 +19376,7 @@
         <v>42217970</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D144">
         <f>B144/B143 * 100</f>
@@ -18755,7 +19387,7 @@
         <v>19027271</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H144">
         <f>F144/F143 * 100</f>
@@ -18769,7 +19401,7 @@
         <v>2188091243</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
@@ -18777,7 +19409,7 @@
         <v>3279529700</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -18788,7 +19420,7 @@
         <v>4928250</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="2"/>
@@ -18796,7 +19428,7 @@
         <v>4074222</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
@@ -18807,7 +19439,7 @@
         <v>12998739976</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -18815,7 +19447,7 @@
         <v>1261438153</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
@@ -18826,7 +19458,7 @@
         <v>121391</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -18834,7 +19466,7 @@
         <v>230809</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
@@ -18845,7 +19477,7 @@
         <v>98528.636056999996</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -18853,7 +19485,7 @@
         <v>9846.5986759999996</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
@@ -18864,7 +19496,7 @@
         <v>98536.233907999995</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -18872,7 +19504,7 @@
         <v>9847.2070739999999</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -18883,7 +19515,7 @@
         <v>196685181013</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D151">
         <f>B151/B141 *100</f>
@@ -18894,7 +19526,7 @@
         <v>10625053193</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H151">
         <f>F151/F141 *100</f>
@@ -18908,7 +19540,7 @@
         <v>165316378154</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D152">
         <f>B152/B141 *100</f>
@@ -18919,7 +19551,7 @@
         <v>7326766467</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H152">
         <f>F152/F141 *100</f>
@@ -18941,23 +19573,23 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B154" s="8">
         <v>379461434589</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F154" s="8">
         <v>26313527095</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
@@ -18968,7 +19600,7 @@
         <v>8605079664</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
@@ -18976,7 +19608,7 @@
         <v>13949235575</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
@@ -18987,7 +19619,7 @@
         <v>40164783</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
@@ -18995,7 +19627,7 @@
         <v>34958016</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
@@ -19006,7 +19638,7 @@
         <v>31761983</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D157">
         <f>B157/B156 * 100</f>
@@ -19017,7 +19649,7 @@
         <v>23008090</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H157">
         <f>F157/F156 * 100</f>
@@ -19031,7 +19663,7 @@
         <v>1459318397</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
@@ -19039,7 +19671,7 @@
         <v>2665374686</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
@@ -19050,7 +19682,7 @@
         <v>2815291</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
@@ -19058,7 +19690,7 @@
         <v>4576432</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
@@ -19069,7 +19701,7 @@
         <v>24438416593</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
@@ -19077,7 +19709,7 @@
         <v>1776639714</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
@@ -19088,7 +19720,7 @@
         <v>32537</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
@@ -19096,7 +19728,7 @@
         <v>103552</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
@@ -19106,7 +19738,7 @@
         <v>185036.80640199999</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
@@ -19114,7 +19746,7 @@
         <v>13765.720123999999</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
@@ -19124,7 +19756,7 @@
         <v>185037.34150099999</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
@@ -19132,7 +19764,7 @@
         <v>13765.818509999999</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
@@ -19142,7 +19774,7 @@
         <v>376114812791</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D164">
         <f>B164/B154 *100</f>
@@ -19153,7 +19785,7 @@
         <v>20243636046</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H164">
         <f>F164/F154 *100</f>
@@ -19166,7 +19798,7 @@
         <v>322556227530</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D165">
         <f>B165/B154 *100</f>
@@ -19177,7 +19809,7 @@
         <v>16945466118</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H165">
         <f>F165/F154 *100</f>
@@ -19197,23 +19829,23 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B167" s="8">
         <v>12230532571</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D167" s="8"/>
       <c r="E167" s="8" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F167" s="8">
         <v>13748658037</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
@@ -19223,13 +19855,13 @@
         <v>13341857929</v>
       </c>
       <c r="C168" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F168">
         <v>16233293987</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -19237,13 +19869,13 @@
         <v>13429232</v>
       </c>
       <c r="C169" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F169">
         <v>18615797</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -19251,7 +19883,7 @@
         <v>12146494</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D170">
         <f>B170/B169 * 100</f>
@@ -19261,7 +19893,7 @@
         <v>16590036</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H170">
         <f>F170/F169 * 100</f>
@@ -19273,13 +19905,13 @@
         <v>2475268189</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F171">
         <v>3040794998</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -19287,13 +19919,13 @@
         <v>551896</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F172">
         <v>1775341</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -19301,13 +19933,13 @@
         <v>1072784517</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F173">
         <v>1071623262</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -19315,13 +19947,13 @@
         <v>171397</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F174" s="2">
         <v>241065</v>
       </c>
       <c r="G174" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -19329,13 +19961,13 @@
         <v>8165.5681850000001</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F175" s="2">
         <v>8099.6276449999996</v>
       </c>
       <c r="G175" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -19343,13 +19975,13 @@
         <v>8165.8202350000001</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F176">
         <v>8099.8000140000004</v>
       </c>
       <c r="G176" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -19357,7 +19989,7 @@
         <v>6818351216</v>
       </c>
       <c r="C177" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D177">
         <f>B177/B167 *100</f>
@@ -19367,7 +19999,7 @@
         <v>7117539268</v>
       </c>
       <c r="G177" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H177">
         <f>F177/F167 *100</f>
@@ -19379,7 +20011,7 @@
         <v>5368212422</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D178">
         <f>B178/B167 *100</f>
@@ -19389,7 +20021,7 @@
         <v>5259984128</v>
       </c>
       <c r="G178" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H178">
         <f>F178/F167 *100</f>
@@ -19402,22 +20034,22 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B180">
         <v>1470683613</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E180" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F180">
         <v>1657097359</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -19425,13 +20057,13 @@
         <v>1813178071</v>
       </c>
       <c r="C181" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F181">
         <v>2082971403</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -19439,13 +20071,13 @@
         <v>3662646</v>
       </c>
       <c r="C182" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F182">
         <v>3677426</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -19453,7 +20085,7 @@
         <v>2324467</v>
       </c>
       <c r="C183" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D183">
         <f>B183/B182 * 100</f>
@@ -19463,7 +20095,7 @@
         <v>2789269</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H183">
         <f>F183/F182 * 100</f>
@@ -19475,13 +20107,13 @@
         <v>348567923</v>
       </c>
       <c r="C184" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F184">
         <v>409926334</v>
       </c>
       <c r="G184" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -19489,13 +20121,13 @@
         <v>273843</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F185">
         <v>441940</v>
       </c>
       <c r="G185" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -19503,13 +20135,13 @@
         <v>142581844</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F186">
         <v>140209874</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -19517,13 +20149,13 @@
         <v>31317</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F187">
         <v>36544</v>
       </c>
       <c r="G187" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -19531,13 +20163,13 @@
         <v>1099.0949579999999</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F188">
         <v>1062.0515359999999</v>
       </c>
       <c r="G188" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -19545,13 +20177,13 @@
         <v>1099.3947470000001</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F189" s="2">
         <v>1062.4926929999999</v>
       </c>
       <c r="G189" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -19559,7 +20191,7 @@
         <v>746127216</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D190">
         <f>B190/B180 *100</f>
@@ -19569,7 +20201,7 @@
         <v>841334674</v>
       </c>
       <c r="G190" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H190">
         <f>F190/F180 *100</f>
@@ -19581,7 +20213,7 @@
         <v>487507640</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D191">
         <f>B191/B180 *100</f>
@@ -19591,7 +20223,7 @@
         <v>379105662</v>
       </c>
       <c r="G191" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H191">
         <f>F191/F180 *100</f>
@@ -19600,22 +20232,22 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B193">
         <v>378681034403</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F193" s="8">
         <v>59750830164</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -19623,13 +20255,13 @@
         <v>35804769422</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F194" s="8">
         <v>30363027310</v>
       </c>
       <c r="G194" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -19637,13 +20269,13 @@
         <v>49861961</v>
       </c>
       <c r="C195" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F195" s="8">
         <v>35968652</v>
       </c>
       <c r="G195" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -19651,7 +20283,7 @@
         <v>28961430</v>
       </c>
       <c r="C196" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D196">
         <f>B196/B195 * 100</f>
@@ -19661,7 +20293,7 @@
         <v>16584349</v>
       </c>
       <c r="G196" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H196">
         <f>F196/F195 * 100</f>
@@ -19673,13 +20305,13 @@
         <v>8321887480</v>
       </c>
       <c r="C197" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F197" s="8">
         <v>6336862948</v>
       </c>
       <c r="G197" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -19687,13 +20319,13 @@
         <v>8105295</v>
       </c>
       <c r="C198" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F198" s="8">
         <v>10591094</v>
       </c>
       <c r="G198" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -19701,13 +20333,13 @@
         <v>24231525805</v>
       </c>
       <c r="C199" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F199" s="8">
         <v>3852958230</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -19715,13 +20347,13 @@
         <v>38368</v>
       </c>
       <c r="C200" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F200" s="8">
         <v>80968</v>
       </c>
       <c r="G200" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -19729,13 +20361,13 @@
         <v>183781.261772</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F201" s="8">
         <v>29415.225584</v>
       </c>
       <c r="G201" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -19743,13 +20375,13 @@
         <v>183781.73663299999</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F202" s="8">
         <v>29415.365613000002</v>
       </c>
       <c r="G202" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -19757,7 +20389,7 @@
         <v>363210622551</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D203">
         <f>B203/B193 *100</f>
@@ -19767,7 +20399,7 @@
         <v>47305651049</v>
       </c>
       <c r="G203" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H203">
         <f>F203/F193 *100</f>
@@ -19779,7 +20411,7 @@
         <v>287955139848</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D204">
         <f>B204/B193 *100</f>
@@ -19789,7 +20421,7 @@
         <v>27814351801</v>
       </c>
       <c r="G204" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H204">
         <f>F204/F193 *100</f>
@@ -19801,22 +20433,22 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B206">
         <v>149484514476</v>
       </c>
       <c r="C206" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E206" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F206" s="8">
         <v>18579509735</v>
       </c>
       <c r="G206" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -19824,13 +20456,13 @@
         <v>12826764758</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F207" s="8">
         <v>16692176082</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -19838,13 +20470,13 @@
         <v>61428849</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F208" s="8">
         <v>23792022</v>
       </c>
       <c r="G208" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -19852,7 +20484,7 @@
         <v>45747384</v>
       </c>
       <c r="C209" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D209">
         <f>B209/B208 * 100</f>
@@ -19862,7 +20494,7 @@
         <v>11848126</v>
       </c>
       <c r="G209" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H209">
         <f>F209/F208 * 100</f>
@@ -19874,13 +20506,13 @@
         <v>2979869789</v>
       </c>
       <c r="C210" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F210" s="8">
         <v>2971800775</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -19888,13 +20520,13 @@
         <v>7593625</v>
       </c>
       <c r="C211" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F211" s="8">
         <v>3454099</v>
       </c>
       <c r="G211" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -19902,13 +20534,13 @@
         <v>10063625979</v>
       </c>
       <c r="C212" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F212" s="8">
         <v>1322737974</v>
       </c>
       <c r="G212" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -19916,13 +20548,13 @@
         <v>105586</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F213" s="8">
         <v>122139</v>
       </c>
       <c r="G213" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -19930,13 +20562,13 @@
         <v>76483.200364999997</v>
       </c>
       <c r="C214" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F214" s="8">
         <v>10210.850779</v>
       </c>
       <c r="G214" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -19944,13 +20576,13 @@
         <v>76486.219656999994</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F215" s="8">
         <v>10211.304778</v>
       </c>
       <c r="G215" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -19958,7 +20590,7 @@
         <v>143386668020</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D216">
         <f>B216/B206 *100</f>
@@ -19968,7 +20600,7 @@
         <v>12299541081</v>
       </c>
       <c r="G216" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H216">
         <f>F216/F206 *100</f>
@@ -19980,7 +20612,7 @@
         <v>117032706942</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D217">
         <f>B217/B206 *100</f>
@@ -19990,7 +20622,7 @@
         <v>8187312744</v>
       </c>
       <c r="G217" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H217">
         <f>F217/F206 *100</f>
@@ -20003,22 +20635,22 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B219">
         <v>382576626690</v>
       </c>
       <c r="C219" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E219" t="s">
         <v>40</v>
-      </c>
-      <c r="E219" t="s">
-        <v>76</v>
       </c>
       <c r="F219">
         <v>28939827189</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -20026,13 +20658,13 @@
         <v>8943110252</v>
       </c>
       <c r="C220" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F220">
         <v>13366863509</v>
       </c>
       <c r="G220" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -20040,13 +20672,13 @@
         <v>37586332</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F221">
         <v>52597295</v>
       </c>
       <c r="G221" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -20054,7 +20686,7 @@
         <v>33363642</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D222">
         <f>B222/B221 * 100</f>
@@ -20064,7 +20696,7 @@
         <v>43347926</v>
       </c>
       <c r="G222" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H222">
         <f>F222/F221 * 100</f>
@@ -20076,13 +20708,13 @@
         <v>1565174211</v>
       </c>
       <c r="C223" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F223">
         <v>2272663689</v>
       </c>
       <c r="G223" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -20090,13 +20722,13 @@
         <v>2528617</v>
       </c>
       <c r="C224" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F224">
         <v>4656550</v>
       </c>
       <c r="G224" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -20104,13 +20736,13 @@
         <v>24178033139</v>
       </c>
       <c r="C225" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F225">
         <v>2063908885</v>
       </c>
       <c r="G225" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -20118,13 +20750,13 @@
         <v>77634</v>
       </c>
       <c r="C226" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F226">
         <v>130303</v>
       </c>
       <c r="G226" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -20132,13 +20764,13 @@
         <v>183269.224984</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F227">
         <v>15840.935517</v>
       </c>
       <c r="G227" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -20146,13 +20778,13 @@
         <v>183269.68877800001</v>
       </c>
       <c r="C228" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F228">
         <v>15841.024504999999</v>
       </c>
       <c r="G228" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -20160,7 +20792,7 @@
         <v>377741660283</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D229">
         <f>B229/B219 *100</f>
@@ -20170,7 +20802,7 @@
         <v>24034425402</v>
       </c>
       <c r="G229" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H229">
         <f>F229/F219 *100</f>
@@ -20182,7 +20814,7 @@
         <v>316273725027</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D230">
         <f>B230/B219 *100</f>
@@ -20192,7 +20824,7 @@
         <v>19681950105</v>
       </c>
       <c r="G230" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H230">
         <f>F230/F219 *100</f>
@@ -20205,22 +20837,22 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B232">
         <v>430854414867</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="F232" s="8">
         <v>241443568989</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -20228,13 +20860,13 @@
         <v>134606357412</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F233" s="8">
         <v>90494514660</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -20242,13 +20874,13 @@
         <v>79641539</v>
       </c>
       <c r="C234" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F234" s="8">
         <v>97852317</v>
       </c>
       <c r="G234" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -20256,7 +20888,7 @@
         <v>32920759</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D235">
         <f>B235/B234 * 100</f>
@@ -20266,7 +20898,7 @@
         <v>42391591</v>
       </c>
       <c r="G235" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H235">
         <f>F235/F234 * 100</f>
@@ -20278,13 +20910,13 @@
         <v>16990204325</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F236" s="8">
         <v>11700296937</v>
       </c>
       <c r="G236" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -20292,13 +20924,13 @@
         <v>4844196</v>
       </c>
       <c r="C237" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F237" s="8">
         <v>7548051</v>
       </c>
       <c r="G237" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -20306,13 +20938,13 @@
         <v>26994970831</v>
       </c>
       <c r="C238" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F238" s="8">
         <v>13637235076</v>
       </c>
       <c r="G238" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -20320,13 +20952,13 @@
         <v>48542</v>
       </c>
       <c r="C239" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F239" s="8">
         <v>57030</v>
       </c>
       <c r="G239" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -20334,13 +20966,13 @@
         <v>204031.79026099999</v>
       </c>
       <c r="C240" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F240" s="8">
         <v>103022.29640599999</v>
       </c>
       <c r="G240" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
@@ -20348,13 +20980,13 @@
         <v>204031.863989</v>
       </c>
       <c r="C241" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F241" s="8">
         <v>103022.567652</v>
       </c>
       <c r="G241" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
@@ -20362,7 +20994,7 @@
         <v>372742227035</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D242">
         <f>B242/B232 *100</f>
@@ -20372,7 +21004,7 @@
         <v>201935411158</v>
       </c>
       <c r="G242" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H242">
         <f>F242/F232 *100</f>
@@ -20384,7 +21016,7 @@
         <v>293013074379</v>
       </c>
       <c r="C243" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D243">
         <f>B243/B232 *100</f>
@@ -20394,7 +21026,7 @@
         <v>146301402644</v>
       </c>
       <c r="G243" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H243">
         <f>F243/F232 *100</f>

--- a/Data Structures/linked_list/MPMC_Buffer_Test_Data.xlsx
+++ b/Data Structures/linked_list/MPMC_Buffer_Test_Data.xlsx
@@ -1383,11 +1383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99156736"/>
-        <c:axId val="99158656"/>
+        <c:axId val="40899328"/>
+        <c:axId val="40901248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99156736"/>
+        <c:axId val="40899328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99158656"/>
+        <c:crossAx val="40901248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1424,7 +1424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99158656"/>
+        <c:axId val="40901248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99156736"/>
+        <c:crossAx val="40899328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1684,11 +1684,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100563584"/>
-        <c:axId val="100569856"/>
+        <c:axId val="41908864"/>
+        <c:axId val="41919232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100563584"/>
+        <c:axId val="41908864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100569856"/>
+        <c:crossAx val="41919232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1724,7 +1724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100569856"/>
+        <c:axId val="41919232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100563584"/>
+        <c:crossAx val="41908864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1982,11 +1982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100600448"/>
-        <c:axId val="100602624"/>
+        <c:axId val="41945728"/>
+        <c:axId val="41952000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100600448"/>
+        <c:axId val="41945728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100602624"/>
+        <c:crossAx val="41952000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2022,7 +2022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100602624"/>
+        <c:axId val="41952000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100600448"/>
+        <c:crossAx val="41945728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2570,11 +2570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100208000"/>
-        <c:axId val="100214272"/>
+        <c:axId val="41557376"/>
+        <c:axId val="41559552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100208000"/>
+        <c:axId val="41557376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100214272"/>
+        <c:crossAx val="41559552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2611,7 +2611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100214272"/>
+        <c:axId val="41559552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,7 +2641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100208000"/>
+        <c:crossAx val="41557376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3011,11 +3011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100255616"/>
-        <c:axId val="100261888"/>
+        <c:axId val="41600896"/>
+        <c:axId val="41607168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100255616"/>
+        <c:axId val="41600896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3044,7 +3044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100261888"/>
+        <c:crossAx val="41607168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3052,7 +3052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100261888"/>
+        <c:axId val="41607168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3082,7 +3082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100255616"/>
+        <c:crossAx val="41600896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3139,7 +3139,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3403,11 +3402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100294016"/>
-        <c:axId val="100304384"/>
+        <c:axId val="41639296"/>
+        <c:axId val="41649664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100294016"/>
+        <c:axId val="41639296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,14 +3428,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100304384"/>
+        <c:crossAx val="41649664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3444,7 +3442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100304384"/>
+        <c:axId val="41649664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3467,21 +3465,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100294016"/>
+        <c:crossAx val="41639296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3531,7 +3527,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3844,11 +3839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100411264"/>
-        <c:axId val="100421632"/>
+        <c:axId val="41760640"/>
+        <c:axId val="41771008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100411264"/>
+        <c:axId val="41760640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3870,14 +3865,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100421632"/>
+        <c:crossAx val="41771008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3885,7 +3879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100421632"/>
+        <c:axId val="41771008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,21 +3902,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100411264"/>
+        <c:crossAx val="41760640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4232,11 +4224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100448128"/>
-        <c:axId val="100458496"/>
+        <c:axId val="41801600"/>
+        <c:axId val="42336256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100448128"/>
+        <c:axId val="41801600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4265,7 +4257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100458496"/>
+        <c:crossAx val="42336256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4273,7 +4265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100458496"/>
+        <c:axId val="42336256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4303,7 +4295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100448128"/>
+        <c:crossAx val="41801600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4620,11 +4612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100755328"/>
-        <c:axId val="100765696"/>
+        <c:axId val="42366848"/>
+        <c:axId val="42373120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100755328"/>
+        <c:axId val="42366848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4653,7 +4645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100765696"/>
+        <c:crossAx val="42373120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4661,7 +4653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100765696"/>
+        <c:axId val="42373120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4691,7 +4683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100755328"/>
+        <c:crossAx val="42366848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5008,11 +5000,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101320576"/>
-        <c:axId val="101326848"/>
+        <c:axId val="42407808"/>
+        <c:axId val="42414080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101320576"/>
+        <c:axId val="42407808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5041,7 +5033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101326848"/>
+        <c:crossAx val="42414080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5049,7 +5041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101326848"/>
+        <c:axId val="42414080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5079,7 +5071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101320576"/>
+        <c:crossAx val="42407808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5131,7 +5123,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5888,11 +5879,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101124736"/>
-        <c:axId val="101131008"/>
+        <c:axId val="42142336"/>
+        <c:axId val="42148608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101124736"/>
+        <c:axId val="42142336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5914,14 +5905,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101131008"/>
+        <c:crossAx val="42148608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5929,7 +5919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101131008"/>
+        <c:axId val="42148608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5952,21 +5942,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101124736"/>
+        <c:crossAx val="42142336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7013,11 +7001,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99696640"/>
-        <c:axId val="99698560"/>
+        <c:axId val="41369600"/>
+        <c:axId val="41371520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99696640"/>
+        <c:axId val="41369600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7045,7 +7033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99698560"/>
+        <c:crossAx val="41371520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7053,7 +7041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99698560"/>
+        <c:axId val="41371520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7082,7 +7070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99696640"/>
+        <c:crossAx val="41369600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8061,11 +8049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101197696"/>
-        <c:axId val="101212160"/>
+        <c:axId val="42219392"/>
+        <c:axId val="42233856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101197696"/>
+        <c:axId val="42219392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8094,7 +8082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101212160"/>
+        <c:crossAx val="42233856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8102,7 +8090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101212160"/>
+        <c:axId val="42233856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8132,7 +8120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101197696"/>
+        <c:crossAx val="42219392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9099,11 +9087,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101294464"/>
-        <c:axId val="101296384"/>
+        <c:axId val="42307968"/>
+        <c:axId val="42309888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101294464"/>
+        <c:axId val="42307968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9132,7 +9120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101296384"/>
+        <c:crossAx val="42309888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9140,7 +9128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101296384"/>
+        <c:axId val="42309888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9170,7 +9158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101294464"/>
+        <c:crossAx val="42307968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10150,11 +10138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101747328"/>
-        <c:axId val="101753600"/>
+        <c:axId val="42830464"/>
+        <c:axId val="42836736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101747328"/>
+        <c:axId val="42830464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10176,14 +10164,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101753600"/>
+        <c:crossAx val="42836736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10191,7 +10178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101753600"/>
+        <c:axId val="42836736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10214,14 +10201,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101747328"/>
+        <c:crossAx val="42830464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10551,11 +10537,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101780096"/>
-        <c:axId val="101786368"/>
+        <c:axId val="42863232"/>
+        <c:axId val="42869504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101780096"/>
+        <c:axId val="42863232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10583,7 +10569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101786368"/>
+        <c:crossAx val="42869504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10591,7 +10577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101786368"/>
+        <c:axId val="42869504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10620,7 +10606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101780096"/>
+        <c:crossAx val="42863232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10940,11 +10926,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101808384"/>
-        <c:axId val="101810560"/>
+        <c:axId val="42891520"/>
+        <c:axId val="42893696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101808384"/>
+        <c:axId val="42891520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10972,7 +10958,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101810560"/>
+        <c:crossAx val="42893696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10980,7 +10966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101810560"/>
+        <c:axId val="42893696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11009,7 +10995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101808384"/>
+        <c:crossAx val="42891520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11329,11 +11315,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102250752"/>
-        <c:axId val="102257024"/>
+        <c:axId val="42674432"/>
+        <c:axId val="42680704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102250752"/>
+        <c:axId val="42674432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11361,7 +11347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102257024"/>
+        <c:crossAx val="42680704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11369,7 +11355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102257024"/>
+        <c:axId val="42680704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11398,7 +11384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102250752"/>
+        <c:crossAx val="42674432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11718,11 +11704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102287616"/>
-        <c:axId val="102302080"/>
+        <c:axId val="42715392"/>
+        <c:axId val="42721664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102287616"/>
+        <c:axId val="42715392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11750,7 +11736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102302080"/>
+        <c:crossAx val="42721664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11758,7 +11744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102302080"/>
+        <c:axId val="42721664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11787,7 +11773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102287616"/>
+        <c:crossAx val="42715392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11934,11 +11920,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
+              <c:f>Sheet1!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local (4 Core) Locked</c:v>
+                  <c:v>Stoker (32 Core) CAS lock</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11978,33 +11964,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$I$23</c:f>
+              <c:f>Sheet1!$B$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3596466</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>433835</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>458235</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>440131</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>428985</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>420847</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>418331</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>416343</c:v>
+                  <c:v>2534484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3036616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3013501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5034945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3178399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3008498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2505219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2931459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12016,11 +12002,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$35</c:f>
+              <c:f>Sheet1!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube (16 Core) Locked</c:v>
+                  <c:v>Stoker (32 Core) CAS lock No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12060,33 +12046,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$35:$I$35</c:f>
+              <c:f>Sheet1!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4440919</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6468343</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8753104</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4304106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5333743</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4988117</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3261383</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3380024</c:v>
+                  <c:v>3876267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5269426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5029597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4095378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>744178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>293748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321689</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>485116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12098,11 +12084,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$51</c:f>
+              <c:f>Sheet1!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker (32 Core) Lockless</c:v>
+                  <c:v>Stoker (32 Core) Ticket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12142,33 +12128,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:f>Sheet1!$B$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3423912</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4892439</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2120942</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>993390</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>944501</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>908252</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1117386</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1358509</c:v>
+                  <c:v>3903521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12180,11 +12166,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$52</c:f>
+              <c:f>Sheet1!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local (4 Core) Lockless</c:v>
+                  <c:v>Stoker (32 Core) TAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12224,33 +12210,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$52:$I$52</c:f>
+              <c:f>Sheet1!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5408971</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9218576</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11726352</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14970837</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14935493</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14943280</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14338199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14749598</c:v>
+                  <c:v>2693284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4090659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8003021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8213234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3974885</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4104354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4128211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2854521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12260,6 +12246,2056 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3376347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5828774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>545138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3572599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5475654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>649864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>609197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>386728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>386132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>462506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>435036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2671790</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3235749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3212408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3113570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3255566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3245981</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5981039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3266572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2795023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>354367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) CASLOCK_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3719776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5286160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7088858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3104034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1207727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>579905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>503468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>433447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4490316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10134249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>649932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>677806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>722366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>677634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>403513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3787767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5576289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3596466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>433835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>458235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>440131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>428985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>420847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>418331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>416343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6706605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5863404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5481491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3028753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3192592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3162206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2614796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2521968</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2378101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5859154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6166904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3994647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3971414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3962966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3421169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3908065</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3924021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5582964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6104732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3947986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3938843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3935768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3926523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3918652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3929959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5706628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5768395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2680752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2666406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2771613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2673569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2787200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2085831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4440919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6468343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8753104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4304106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5333743</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4988117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3261383</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3380024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) CAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3913958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5772596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5848373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7206638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7286392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3728844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7177336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3725632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) CAS No Delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3874427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5627448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7180464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3733383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3667632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3685510</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4630361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4454831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4572297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4192713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6080839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4077672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4085489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4076500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4131560</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7821266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4113042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4048593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7565606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10061511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11629238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8258845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6522062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2031469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3993999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4132087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7658009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4047283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7541634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4016279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4046428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4003946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3996551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5461816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8190324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7307748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8938291</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9024907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6572052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>253167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="33"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) CASLOCK_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$44:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3909466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7234623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10045746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10926801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4042778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3751906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9286824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4110923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="34"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$45:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4570738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8916124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1608578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1542688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1359187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="36"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3423912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4892439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2120942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>993390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>944501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>908252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1117386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1358509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5408971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9218576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11726352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14970837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14935493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14943280</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14338199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14749598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="38"/>
+          <c:order val="30"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$53</c:f>
@@ -12349,11 +14385,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102323712"/>
-        <c:axId val="102325632"/>
+        <c:axId val="42771200"/>
+        <c:axId val="42773120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102323712"/>
+        <c:axId val="42771200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12382,7 +14418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102325632"/>
+        <c:crossAx val="42773120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12390,7 +14426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102325632"/>
+        <c:axId val="42773120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12420,7 +14456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102323712"/>
+        <c:crossAx val="42771200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13462,11 +15498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99744768"/>
-        <c:axId val="99423360"/>
+        <c:axId val="41094144"/>
+        <c:axId val="41096320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99744768"/>
+        <c:axId val="41094144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13495,7 +15531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99423360"/>
+        <c:crossAx val="41096320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13503,7 +15539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99423360"/>
+        <c:axId val="41096320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13533,7 +15569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99744768"/>
+        <c:crossAx val="41094144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13768,11 +15804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99470336"/>
-        <c:axId val="99476608"/>
+        <c:axId val="41147392"/>
+        <c:axId val="41153664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99470336"/>
+        <c:axId val="41147392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13801,7 +15837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99476608"/>
+        <c:crossAx val="41153664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13809,7 +15845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99476608"/>
+        <c:axId val="41153664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13839,7 +15875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99470336"/>
+        <c:crossAx val="41147392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14070,11 +16106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99499008"/>
-        <c:axId val="99505280"/>
+        <c:axId val="41180160"/>
+        <c:axId val="41190528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99499008"/>
+        <c:axId val="41180160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14103,7 +16139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99505280"/>
+        <c:crossAx val="41190528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14111,7 +16147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99505280"/>
+        <c:axId val="41190528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14141,7 +16177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99499008"/>
+        <c:crossAx val="41180160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14206,7 +16242,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14372,11 +16407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99554432"/>
-        <c:axId val="99556352"/>
+        <c:axId val="41217024"/>
+        <c:axId val="41297024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99554432"/>
+        <c:axId val="41217024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14398,14 +16433,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99556352"/>
+        <c:crossAx val="41297024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14413,7 +16447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99556352"/>
+        <c:axId val="41297024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14436,21 +16470,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99554432"/>
+        <c:crossAx val="41217024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14508,7 +16540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14674,11 +16705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99583104"/>
-        <c:axId val="99585024"/>
+        <c:axId val="41327616"/>
+        <c:axId val="41329792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99583104"/>
+        <c:axId val="41327616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14700,14 +16731,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99585024"/>
+        <c:crossAx val="41329792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14715,7 +16745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99585024"/>
+        <c:axId val="41329792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14738,21 +16768,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99583104"/>
+        <c:crossAx val="41327616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14810,7 +16838,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14976,11 +17003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99609984"/>
-        <c:axId val="100484608"/>
+        <c:axId val="41839616"/>
+        <c:axId val="41841792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99609984"/>
+        <c:axId val="41839616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15002,14 +17029,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100484608"/>
+        <c:crossAx val="41841792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15017,7 +17043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100484608"/>
+        <c:axId val="41841792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15040,21 +17066,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99609984"/>
+        <c:crossAx val="41839616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15256,11 +17280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100526720"/>
-        <c:axId val="100532992"/>
+        <c:axId val="41872000"/>
+        <c:axId val="41878272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100526720"/>
+        <c:axId val="41872000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15288,7 +17312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100532992"/>
+        <c:crossAx val="41878272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15296,7 +17320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100532992"/>
+        <c:axId val="41878272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15325,7 +17349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100526720"/>
+        <c:crossAx val="41872000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16177,15 +18201,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2295524</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>933449</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16496,7 +18520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
